--- a/summaries/sample_session.xlsx
+++ b/summaries/sample_session.xlsx
@@ -1,21 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="22730"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ross-\Documents\GitHub\udacity-capstone\summaries\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{428BE66D-AE4D-40AC-9412-A8F71F2D9FE5}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3120" yWindow="3120" windowWidth="38700" windowHeight="15555" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519"/>
+  <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
@@ -2446,8 +2440,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="2">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -2487,7 +2481,9 @@
       <right style="thin">
         <color auto="1"/>
       </right>
-      <top/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
       <bottom style="thin">
         <color auto="1"/>
       </bottom>
@@ -2506,88 +2502,9 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="3">
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color auto="1"/>
-        </left>
-        <right style="thin">
-          <color auto="1"/>
-        </right>
-        <top/>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <border outline="0">
-        <bottom style="thin">
-          <color auto="1"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border outline="0">
-        <top style="thin">
-          <color auto="1"/>
-        </top>
-      </border>
-    </dxf>
-  </dxfs>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{B59CE011-81BD-491A-B32D-856F86C1F4A3}" name="Table1" displayName="Table1" ref="A1:R516" totalsRowShown="0" headerRowDxfId="0" headerRowBorderDxfId="1" tableBorderDxfId="2">
-  <autoFilter ref="A1:R516" xr:uid="{C8A750B1-49D9-4864-9EE8-BD945B5E8CB3}"/>
-  <tableColumns count="18">
-    <tableColumn id="1" xr3:uid="{405A698C-A0CD-4441-BEA3-5202B43232F6}" name="artist"/>
-    <tableColumn id="2" xr3:uid="{9AF6C724-2CEC-4A8F-828F-D88BDBF94338}" name="auth"/>
-    <tableColumn id="3" xr3:uid="{289E414D-66A7-4050-8E1E-006C1179C50C}" name="firstName"/>
-    <tableColumn id="4" xr3:uid="{76DD6626-5709-4ADF-BA25-749048BB1759}" name="gender"/>
-    <tableColumn id="5" xr3:uid="{C4C34471-E9A1-44FA-8831-4BB46FD95AE8}" name="itemInSession"/>
-    <tableColumn id="6" xr3:uid="{A7E652B7-015D-4BA4-A556-CFD1DA01DAE4}" name="lastName"/>
-    <tableColumn id="7" xr3:uid="{A367C7AC-D0F2-4EEB-9EA1-4F1C31771A84}" name="length"/>
-    <tableColumn id="8" xr3:uid="{2AD462E8-AF0C-4A32-96FB-66C1FC319B3E}" name="level"/>
-    <tableColumn id="9" xr3:uid="{96DA8521-5CBE-428B-938B-E0E1F6130544}" name="location"/>
-    <tableColumn id="10" xr3:uid="{31021D72-EB12-4998-BEC8-6CC0DA480EC1}" name="method"/>
-    <tableColumn id="11" xr3:uid="{07F23818-3E8D-444E-B211-D2531779ABCC}" name="page"/>
-    <tableColumn id="12" xr3:uid="{D3D93184-96F4-4AA8-9DF3-5EF3A0A411AC}" name="registration"/>
-    <tableColumn id="13" xr3:uid="{A0F18860-2AF1-4FEB-BEBF-46BA8855213D}" name="sessionId"/>
-    <tableColumn id="14" xr3:uid="{BC625EB4-1E42-4604-9FEB-F8C5048DF528}" name="song"/>
-    <tableColumn id="15" xr3:uid="{71C6B2FE-6C6E-49DB-9C15-465343F5C262}" name="status"/>
-    <tableColumn id="16" xr3:uid="{580834DE-A820-4846-A56D-C099608BF8C8}" name="ts"/>
-    <tableColumn id="17" xr3:uid="{B05F4E25-CD3E-4E60-8FD7-43C5E0309D15}" name="userAgent"/>
-    <tableColumn id="18" xr3:uid="{CA4AED5D-C2F1-48C7-B504-6BE853458FD3}" name="userId"/>
-  </tableColumns>
-  <tableStyleInfo name="TableStyleMedium9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
-</table>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -2633,7 +2550,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -2665,27 +2582,9 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -2717,24 +2616,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -2910,36 +2791,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:R516"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A82" workbookViewId="0">
-      <selection activeCell="M15" sqref="M15"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="65.7109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="14.42578125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11.85546875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="18.28515625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="11.28515625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="10" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="25.28515625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="12.5703125" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="18.7109375" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="15.85546875" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="13.85546875" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="78.140625" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="10.85546875" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="12" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="108.7109375" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="11.140625" bestFit="1" customWidth="1"/>
-  </cols>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:18">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2995,7 +2854,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="2" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:18">
       <c r="B2" t="s">
         <v>376</v>
       </c>
@@ -3021,7 +2880,7 @@
         <v>1541711432000</v>
       </c>
     </row>
-    <row r="3" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:18">
       <c r="B3" t="s">
         <v>376</v>
       </c>
@@ -3047,7 +2906,7 @@
         <v>1541711433000</v>
       </c>
     </row>
-    <row r="4" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:18">
       <c r="B4" t="s">
         <v>377</v>
       </c>
@@ -3094,7 +2953,7 @@
         <v>806</v>
       </c>
     </row>
-    <row r="5" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:18">
       <c r="A5" t="s">
         <v>18</v>
       </c>
@@ -3114,7 +2973,7 @@
         <v>381</v>
       </c>
       <c r="G5">
-        <v>247.11790999999999</v>
+        <v>247.11791</v>
       </c>
       <c r="H5" t="s">
         <v>382</v>
@@ -3150,7 +3009,7 @@
         <v>806</v>
       </c>
     </row>
-    <row r="6" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:18">
       <c r="B6" t="s">
         <v>377</v>
       </c>
@@ -3197,7 +3056,7 @@
         <v>806</v>
       </c>
     </row>
-    <row r="7" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:18">
       <c r="B7" t="s">
         <v>377</v>
       </c>
@@ -3244,7 +3103,7 @@
         <v>806</v>
       </c>
     </row>
-    <row r="8" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:18">
       <c r="B8" t="s">
         <v>377</v>
       </c>
@@ -3291,7 +3150,7 @@
         <v>806</v>
       </c>
     </row>
-    <row r="9" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:18">
       <c r="A9" t="s">
         <v>19</v>
       </c>
@@ -3347,7 +3206,7 @@
         <v>806</v>
       </c>
     </row>
-    <row r="10" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:18">
       <c r="A10" t="s">
         <v>20</v>
       </c>
@@ -3367,7 +3226,7 @@
         <v>381</v>
       </c>
       <c r="G10">
-        <v>178.83383000000001</v>
+        <v>178.83383</v>
       </c>
       <c r="H10" t="s">
         <v>383</v>
@@ -3403,7 +3262,7 @@
         <v>806</v>
       </c>
     </row>
-    <row r="11" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:18">
       <c r="A11" t="s">
         <v>21</v>
       </c>
@@ -3423,7 +3282,7 @@
         <v>381</v>
       </c>
       <c r="G11">
-        <v>217.20770999999999</v>
+        <v>217.20771</v>
       </c>
       <c r="H11" t="s">
         <v>383</v>
@@ -3459,7 +3318,7 @@
         <v>806</v>
       </c>
     </row>
-    <row r="12" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:18">
       <c r="A12" t="s">
         <v>22</v>
       </c>
@@ -3515,7 +3374,7 @@
         <v>806</v>
       </c>
     </row>
-    <row r="13" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:18">
       <c r="A13" t="s">
         <v>23</v>
       </c>
@@ -3535,7 +3394,7 @@
         <v>381</v>
       </c>
       <c r="G13">
-        <v>180.66239999999999</v>
+        <v>180.6624</v>
       </c>
       <c r="H13" t="s">
         <v>383</v>
@@ -3571,7 +3430,7 @@
         <v>806</v>
       </c>
     </row>
-    <row r="14" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:18">
       <c r="B14" t="s">
         <v>377</v>
       </c>
@@ -3618,7 +3477,7 @@
         <v>806</v>
       </c>
     </row>
-    <row r="15" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:18">
       <c r="A15" t="s">
         <v>24</v>
       </c>
@@ -3674,7 +3533,7 @@
         <v>806</v>
       </c>
     </row>
-    <row r="16" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:18">
       <c r="A16" t="s">
         <v>25</v>
       </c>
@@ -3730,7 +3589,7 @@
         <v>806</v>
       </c>
     </row>
-    <row r="17" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:18">
       <c r="A17" t="s">
         <v>26</v>
       </c>
@@ -3750,7 +3609,7 @@
         <v>381</v>
       </c>
       <c r="G17">
-        <v>270.75873000000001</v>
+        <v>270.75873</v>
       </c>
       <c r="H17" t="s">
         <v>383</v>
@@ -3786,7 +3645,7 @@
         <v>806</v>
       </c>
     </row>
-    <row r="18" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:18">
       <c r="A18" t="s">
         <v>27</v>
       </c>
@@ -3842,7 +3701,7 @@
         <v>806</v>
       </c>
     </row>
-    <row r="19" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:18">
       <c r="A19" t="s">
         <v>28</v>
       </c>
@@ -3862,7 +3721,7 @@
         <v>381</v>
       </c>
       <c r="G19">
-        <v>61.831380000000003</v>
+        <v>61.83138</v>
       </c>
       <c r="H19" t="s">
         <v>383</v>
@@ -3898,7 +3757,7 @@
         <v>806</v>
       </c>
     </row>
-    <row r="20" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:18">
       <c r="B20" t="s">
         <v>377</v>
       </c>
@@ -3945,7 +3804,7 @@
         <v>806</v>
       </c>
     </row>
-    <row r="21" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:18">
       <c r="A21" t="s">
         <v>29</v>
       </c>
@@ -3965,7 +3824,7 @@
         <v>381</v>
       </c>
       <c r="G21">
-        <v>231.13097999999999</v>
+        <v>231.13098</v>
       </c>
       <c r="H21" t="s">
         <v>383</v>
@@ -4001,7 +3860,7 @@
         <v>806</v>
       </c>
     </row>
-    <row r="22" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:18">
       <c r="A22" t="s">
         <v>30</v>
       </c>
@@ -4021,7 +3880,7 @@
         <v>381</v>
       </c>
       <c r="G22">
-        <v>235.41506000000001</v>
+        <v>235.41506</v>
       </c>
       <c r="H22" t="s">
         <v>383</v>
@@ -4057,7 +3916,7 @@
         <v>806</v>
       </c>
     </row>
-    <row r="23" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:18">
       <c r="A23" t="s">
         <v>31</v>
       </c>
@@ -4077,7 +3936,7 @@
         <v>381</v>
       </c>
       <c r="G23">
-        <v>180.87137999999999</v>
+        <v>180.87138</v>
       </c>
       <c r="H23" t="s">
         <v>383</v>
@@ -4113,7 +3972,7 @@
         <v>806</v>
       </c>
     </row>
-    <row r="24" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:18">
       <c r="A24" t="s">
         <v>32</v>
       </c>
@@ -4133,7 +3992,7 @@
         <v>381</v>
       </c>
       <c r="G24">
-        <v>231.67955000000001</v>
+        <v>231.67955</v>
       </c>
       <c r="H24" t="s">
         <v>383</v>
@@ -4169,7 +4028,7 @@
         <v>806</v>
       </c>
     </row>
-    <row r="25" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:18">
       <c r="A25" t="s">
         <v>33</v>
       </c>
@@ -4189,7 +4048,7 @@
         <v>381</v>
       </c>
       <c r="G25">
-        <v>230.66077000000001</v>
+        <v>230.66077</v>
       </c>
       <c r="H25" t="s">
         <v>383</v>
@@ -4225,7 +4084,7 @@
         <v>806</v>
       </c>
     </row>
-    <row r="26" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:18">
       <c r="A26" t="s">
         <v>34</v>
       </c>
@@ -4245,7 +4104,7 @@
         <v>381</v>
       </c>
       <c r="G26">
-        <v>159.08526000000001</v>
+        <v>159.08526</v>
       </c>
       <c r="H26" t="s">
         <v>383</v>
@@ -4281,7 +4140,7 @@
         <v>806</v>
       </c>
     </row>
-    <row r="27" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:18">
       <c r="A27" t="s">
         <v>35</v>
       </c>
@@ -4337,7 +4196,7 @@
         <v>806</v>
       </c>
     </row>
-    <row r="28" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:18">
       <c r="B28" t="s">
         <v>377</v>
       </c>
@@ -4384,7 +4243,7 @@
         <v>806</v>
       </c>
     </row>
-    <row r="29" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:18">
       <c r="A29" t="s">
         <v>36</v>
       </c>
@@ -4404,7 +4263,7 @@
         <v>381</v>
       </c>
       <c r="G29">
-        <v>281.39057000000003</v>
+        <v>281.39057</v>
       </c>
       <c r="H29" t="s">
         <v>383</v>
@@ -4440,7 +4299,7 @@
         <v>806</v>
       </c>
     </row>
-    <row r="30" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:18">
       <c r="A30" t="s">
         <v>37</v>
       </c>
@@ -4496,7 +4355,7 @@
         <v>806</v>
       </c>
     </row>
-    <row r="31" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:18">
       <c r="A31" t="s">
         <v>38</v>
       </c>
@@ -4516,7 +4375,7 @@
         <v>381</v>
       </c>
       <c r="G31">
-        <v>184.76363000000001</v>
+        <v>184.76363</v>
       </c>
       <c r="H31" t="s">
         <v>383</v>
@@ -4552,7 +4411,7 @@
         <v>806</v>
       </c>
     </row>
-    <row r="32" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:18">
       <c r="A32" t="s">
         <v>39</v>
       </c>
@@ -4608,7 +4467,7 @@
         <v>806</v>
       </c>
     </row>
-    <row r="33" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:18">
       <c r="A33" t="s">
         <v>40</v>
       </c>
@@ -4628,7 +4487,7 @@
         <v>381</v>
       </c>
       <c r="G33">
-        <v>281.93914000000001</v>
+        <v>281.93914</v>
       </c>
       <c r="H33" t="s">
         <v>383</v>
@@ -4664,7 +4523,7 @@
         <v>806</v>
       </c>
     </row>
-    <row r="34" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:18">
       <c r="B34" t="s">
         <v>377</v>
       </c>
@@ -4711,7 +4570,7 @@
         <v>806</v>
       </c>
     </row>
-    <row r="35" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:18">
       <c r="A35" t="s">
         <v>41</v>
       </c>
@@ -4731,7 +4590,7 @@
         <v>381</v>
       </c>
       <c r="G35">
-        <v>359.47057000000001</v>
+        <v>359.47057</v>
       </c>
       <c r="H35" t="s">
         <v>383</v>
@@ -4767,7 +4626,7 @@
         <v>806</v>
       </c>
     </row>
-    <row r="36" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:18">
       <c r="A36" t="s">
         <v>42</v>
       </c>
@@ -4823,7 +4682,7 @@
         <v>806</v>
       </c>
     </row>
-    <row r="37" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:18">
       <c r="A37" t="s">
         <v>43</v>
       </c>
@@ -4843,7 +4702,7 @@
         <v>381</v>
       </c>
       <c r="G37">
-        <v>332.85178999999999</v>
+        <v>332.85179</v>
       </c>
       <c r="H37" t="s">
         <v>383</v>
@@ -4879,7 +4738,7 @@
         <v>806</v>
       </c>
     </row>
-    <row r="38" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:18">
       <c r="A38" t="s">
         <v>44</v>
       </c>
@@ -4899,7 +4758,7 @@
         <v>381</v>
       </c>
       <c r="G38">
-        <v>198.24280999999999</v>
+        <v>198.24281</v>
       </c>
       <c r="H38" t="s">
         <v>383</v>
@@ -4935,7 +4794,7 @@
         <v>806</v>
       </c>
     </row>
-    <row r="39" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:18">
       <c r="A39" t="s">
         <v>45</v>
       </c>
@@ -4955,7 +4814,7 @@
         <v>381</v>
       </c>
       <c r="G39">
-        <v>294.92200000000003</v>
+        <v>294.922</v>
       </c>
       <c r="H39" t="s">
         <v>383</v>
@@ -4991,7 +4850,7 @@
         <v>806</v>
       </c>
     </row>
-    <row r="40" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:18">
       <c r="A40" t="s">
         <v>46</v>
       </c>
@@ -5011,7 +4870,7 @@
         <v>381</v>
       </c>
       <c r="G40">
-        <v>199.57506000000001</v>
+        <v>199.57506</v>
       </c>
       <c r="H40" t="s">
         <v>383</v>
@@ -5047,7 +4906,7 @@
         <v>806</v>
       </c>
     </row>
-    <row r="41" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:18">
       <c r="A41" t="s">
         <v>47</v>
       </c>
@@ -5067,7 +4926,7 @@
         <v>381</v>
       </c>
       <c r="G41">
-        <v>233.89994999999999</v>
+        <v>233.89995</v>
       </c>
       <c r="H41" t="s">
         <v>383</v>
@@ -5103,7 +4962,7 @@
         <v>806</v>
       </c>
     </row>
-    <row r="42" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:18">
       <c r="A42" t="s">
         <v>48</v>
       </c>
@@ -5159,7 +5018,7 @@
         <v>806</v>
       </c>
     </row>
-    <row r="43" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:18">
       <c r="A43" t="s">
         <v>49</v>
       </c>
@@ -5179,7 +5038,7 @@
         <v>381</v>
       </c>
       <c r="G43">
-        <v>322.01098000000002</v>
+        <v>322.01098</v>
       </c>
       <c r="H43" t="s">
         <v>383</v>
@@ -5215,7 +5074,7 @@
         <v>806</v>
       </c>
     </row>
-    <row r="44" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:18">
       <c r="A44" t="s">
         <v>50</v>
       </c>
@@ -5235,7 +5094,7 @@
         <v>381</v>
       </c>
       <c r="G44">
-        <v>342.75220000000002</v>
+        <v>342.7522</v>
       </c>
       <c r="H44" t="s">
         <v>383</v>
@@ -5271,7 +5130,7 @@
         <v>806</v>
       </c>
     </row>
-    <row r="45" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:18">
       <c r="B45" t="s">
         <v>377</v>
       </c>
@@ -5318,7 +5177,7 @@
         <v>806</v>
       </c>
     </row>
-    <row r="46" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:18">
       <c r="A46" t="s">
         <v>51</v>
       </c>
@@ -5338,7 +5197,7 @@
         <v>381</v>
       </c>
       <c r="G46">
-        <v>244.27056999999999</v>
+        <v>244.27057</v>
       </c>
       <c r="H46" t="s">
         <v>383</v>
@@ -5374,7 +5233,7 @@
         <v>806</v>
       </c>
     </row>
-    <row r="47" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:18">
       <c r="B47" t="s">
         <v>377</v>
       </c>
@@ -5421,7 +5280,7 @@
         <v>806</v>
       </c>
     </row>
-    <row r="48" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:18">
       <c r="A48" t="s">
         <v>52</v>
       </c>
@@ -5441,7 +5300,7 @@
         <v>381</v>
       </c>
       <c r="G48">
-        <v>291.29097999999999</v>
+        <v>291.29098</v>
       </c>
       <c r="H48" t="s">
         <v>383</v>
@@ -5477,7 +5336,7 @@
         <v>806</v>
       </c>
     </row>
-    <row r="49" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:18">
       <c r="A49" t="s">
         <v>53</v>
       </c>
@@ -5533,7 +5392,7 @@
         <v>806</v>
       </c>
     </row>
-    <row r="50" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:18">
       <c r="A50" t="s">
         <v>54</v>
       </c>
@@ -5589,7 +5448,7 @@
         <v>806</v>
       </c>
     </row>
-    <row r="51" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:18">
       <c r="B51" t="s">
         <v>377</v>
       </c>
@@ -5636,7 +5495,7 @@
         <v>806</v>
       </c>
     </row>
-    <row r="52" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:18">
       <c r="A52" t="s">
         <v>55</v>
       </c>
@@ -5692,7 +5551,7 @@
         <v>806</v>
       </c>
     </row>
-    <row r="53" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:18">
       <c r="A53" t="s">
         <v>56</v>
       </c>
@@ -5712,7 +5571,7 @@
         <v>381</v>
       </c>
       <c r="G53">
-        <v>345.05097999999998</v>
+        <v>345.05098</v>
       </c>
       <c r="H53" t="s">
         <v>383</v>
@@ -5748,7 +5607,7 @@
         <v>806</v>
       </c>
     </row>
-    <row r="54" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:18">
       <c r="A54" t="s">
         <v>57</v>
       </c>
@@ -5768,7 +5627,7 @@
         <v>381</v>
       </c>
       <c r="G54">
-        <v>217.83465000000001</v>
+        <v>217.83465</v>
       </c>
       <c r="H54" t="s">
         <v>383</v>
@@ -5804,7 +5663,7 @@
         <v>806</v>
       </c>
     </row>
-    <row r="55" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:18">
       <c r="A55" t="s">
         <v>58</v>
       </c>
@@ -5860,7 +5719,7 @@
         <v>806</v>
       </c>
     </row>
-    <row r="56" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:18">
       <c r="A56" t="s">
         <v>59</v>
       </c>
@@ -5880,7 +5739,7 @@
         <v>381</v>
       </c>
       <c r="G56">
-        <v>285.70076999999998</v>
+        <v>285.70077</v>
       </c>
       <c r="H56" t="s">
         <v>383</v>
@@ -5916,7 +5775,7 @@
         <v>806</v>
       </c>
     </row>
-    <row r="57" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:18">
       <c r="A57" t="s">
         <v>60</v>
       </c>
@@ -5936,7 +5795,7 @@
         <v>381</v>
       </c>
       <c r="G57">
-        <v>214.36035999999999</v>
+        <v>214.36036</v>
       </c>
       <c r="H57" t="s">
         <v>383</v>
@@ -5972,7 +5831,7 @@
         <v>806</v>
       </c>
     </row>
-    <row r="58" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:18">
       <c r="B58" t="s">
         <v>377</v>
       </c>
@@ -6019,7 +5878,7 @@
         <v>806</v>
       </c>
     </row>
-    <row r="59" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:18">
       <c r="A59" t="s">
         <v>61</v>
       </c>
@@ -6075,7 +5934,7 @@
         <v>806</v>
       </c>
     </row>
-    <row r="60" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:18">
       <c r="A60" t="s">
         <v>62</v>
       </c>
@@ -6131,7 +5990,7 @@
         <v>806</v>
       </c>
     </row>
-    <row r="61" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:18">
       <c r="A61" t="s">
         <v>63</v>
       </c>
@@ -6151,7 +6010,7 @@
         <v>381</v>
       </c>
       <c r="G61">
-        <v>258.32443999999998</v>
+        <v>258.32444</v>
       </c>
       <c r="H61" t="s">
         <v>383</v>
@@ -6187,7 +6046,7 @@
         <v>806</v>
       </c>
     </row>
-    <row r="62" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:18">
       <c r="A62" t="s">
         <v>64</v>
       </c>
@@ -6207,7 +6066,7 @@
         <v>381</v>
       </c>
       <c r="G62">
-        <v>245.36770999999999</v>
+        <v>245.36771</v>
       </c>
       <c r="H62" t="s">
         <v>383</v>
@@ -6243,7 +6102,7 @@
         <v>806</v>
       </c>
     </row>
-    <row r="63" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:18">
       <c r="A63" t="s">
         <v>65</v>
       </c>
@@ -6263,7 +6122,7 @@
         <v>381</v>
       </c>
       <c r="G63">
-        <v>338.33751000000001</v>
+        <v>338.33751</v>
       </c>
       <c r="H63" t="s">
         <v>383</v>
@@ -6299,7 +6158,7 @@
         <v>806</v>
       </c>
     </row>
-    <row r="64" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:18">
       <c r="A64" t="s">
         <v>66</v>
       </c>
@@ -6319,7 +6178,7 @@
         <v>381</v>
       </c>
       <c r="G64">
-        <v>178.44200000000001</v>
+        <v>178.442</v>
       </c>
       <c r="H64" t="s">
         <v>383</v>
@@ -6355,7 +6214,7 @@
         <v>806</v>
       </c>
     </row>
-    <row r="65" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:18">
       <c r="A65" t="s">
         <v>67</v>
       </c>
@@ -6375,7 +6234,7 @@
         <v>381</v>
       </c>
       <c r="G65">
-        <v>615.86239999999998</v>
+        <v>615.8624</v>
       </c>
       <c r="H65" t="s">
         <v>383</v>
@@ -6411,7 +6270,7 @@
         <v>806</v>
       </c>
     </row>
-    <row r="66" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:18">
       <c r="A66" t="s">
         <v>68</v>
       </c>
@@ -6431,7 +6290,7 @@
         <v>381</v>
       </c>
       <c r="G66">
-        <v>228.91057000000001</v>
+        <v>228.91057</v>
       </c>
       <c r="H66" t="s">
         <v>383</v>
@@ -6467,7 +6326,7 @@
         <v>806</v>
       </c>
     </row>
-    <row r="67" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:18">
       <c r="B67" t="s">
         <v>377</v>
       </c>
@@ -6514,7 +6373,7 @@
         <v>806</v>
       </c>
     </row>
-    <row r="68" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:18">
       <c r="A68" t="s">
         <v>69</v>
       </c>
@@ -6534,7 +6393,7 @@
         <v>381</v>
       </c>
       <c r="G68">
-        <v>296.82893000000001</v>
+        <v>296.82893</v>
       </c>
       <c r="H68" t="s">
         <v>383</v>
@@ -6570,7 +6429,7 @@
         <v>806</v>
       </c>
     </row>
-    <row r="69" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:18">
       <c r="A69" t="s">
         <v>70</v>
       </c>
@@ -6590,7 +6449,7 @@
         <v>381</v>
       </c>
       <c r="G69">
-        <v>208.92688999999999</v>
+        <v>208.92689</v>
       </c>
       <c r="H69" t="s">
         <v>383</v>
@@ -6626,7 +6485,7 @@
         <v>806</v>
       </c>
     </row>
-    <row r="70" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:18">
       <c r="B70" t="s">
         <v>377</v>
       </c>
@@ -6673,7 +6532,7 @@
         <v>806</v>
       </c>
     </row>
-    <row r="71" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:18">
       <c r="A71" t="s">
         <v>71</v>
       </c>
@@ -6693,7 +6552,7 @@
         <v>381</v>
       </c>
       <c r="G71">
-        <v>297.40363000000002</v>
+        <v>297.40363</v>
       </c>
       <c r="H71" t="s">
         <v>383</v>
@@ -6729,7 +6588,7 @@
         <v>806</v>
       </c>
     </row>
-    <row r="72" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:18">
       <c r="A72" t="s">
         <v>72</v>
       </c>
@@ -6749,7 +6608,7 @@
         <v>381</v>
       </c>
       <c r="G72">
-        <v>347.53260999999998</v>
+        <v>347.53261</v>
       </c>
       <c r="H72" t="s">
         <v>383</v>
@@ -6785,7 +6644,7 @@
         <v>806</v>
       </c>
     </row>
-    <row r="73" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:18">
       <c r="A73" t="s">
         <v>73</v>
       </c>
@@ -6805,7 +6664,7 @@
         <v>381</v>
       </c>
       <c r="G73">
-        <v>199.15710000000001</v>
+        <v>199.1571</v>
       </c>
       <c r="H73" t="s">
         <v>383</v>
@@ -6841,7 +6700,7 @@
         <v>806</v>
       </c>
     </row>
-    <row r="74" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:18">
       <c r="A74" t="s">
         <v>74</v>
       </c>
@@ -6897,7 +6756,7 @@
         <v>806</v>
       </c>
     </row>
-    <row r="75" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:18">
       <c r="A75" t="s">
         <v>75</v>
       </c>
@@ -6917,7 +6776,7 @@
         <v>381</v>
       </c>
       <c r="G75">
-        <v>158.48444000000001</v>
+        <v>158.48444</v>
       </c>
       <c r="H75" t="s">
         <v>383</v>
@@ -6953,7 +6812,7 @@
         <v>806</v>
       </c>
     </row>
-    <row r="76" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:18">
       <c r="A76" t="s">
         <v>76</v>
       </c>
@@ -6973,7 +6832,7 @@
         <v>381</v>
       </c>
       <c r="G76">
-        <v>239.22892999999999</v>
+        <v>239.22893</v>
       </c>
       <c r="H76" t="s">
         <v>383</v>
@@ -7009,7 +6868,7 @@
         <v>806</v>
       </c>
     </row>
-    <row r="77" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:18">
       <c r="A77" t="s">
         <v>77</v>
       </c>
@@ -7029,7 +6888,7 @@
         <v>381</v>
       </c>
       <c r="G77">
-        <v>187.11465000000001</v>
+        <v>187.11465</v>
       </c>
       <c r="H77" t="s">
         <v>383</v>
@@ -7065,7 +6924,7 @@
         <v>806</v>
       </c>
     </row>
-    <row r="78" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:18">
       <c r="A78" t="s">
         <v>32</v>
       </c>
@@ -7085,7 +6944,7 @@
         <v>381</v>
       </c>
       <c r="G78">
-        <v>231.67955000000001</v>
+        <v>231.67955</v>
       </c>
       <c r="H78" t="s">
         <v>383</v>
@@ -7121,7 +6980,7 @@
         <v>806</v>
       </c>
     </row>
-    <row r="79" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:18">
       <c r="B79" t="s">
         <v>377</v>
       </c>
@@ -7168,7 +7027,7 @@
         <v>806</v>
       </c>
     </row>
-    <row r="80" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:18">
       <c r="A80" t="s">
         <v>35</v>
       </c>
@@ -7188,7 +7047,7 @@
         <v>381</v>
       </c>
       <c r="G80">
-        <v>289.93261000000001</v>
+        <v>289.93261</v>
       </c>
       <c r="H80" t="s">
         <v>383</v>
@@ -7224,7 +7083,7 @@
         <v>806</v>
       </c>
     </row>
-    <row r="81" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:18">
       <c r="A81" t="s">
         <v>78</v>
       </c>
@@ -7280,7 +7139,7 @@
         <v>806</v>
       </c>
     </row>
-    <row r="82" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:18">
       <c r="A82" t="s">
         <v>79</v>
       </c>
@@ -7336,7 +7195,7 @@
         <v>806</v>
       </c>
     </row>
-    <row r="83" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:18">
       <c r="B83" t="s">
         <v>377</v>
       </c>
@@ -7383,7 +7242,7 @@
         <v>806</v>
       </c>
     </row>
-    <row r="84" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:18">
       <c r="A84" t="s">
         <v>80</v>
       </c>
@@ -7439,7 +7298,7 @@
         <v>806</v>
       </c>
     </row>
-    <row r="85" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:18">
       <c r="A85" t="s">
         <v>49</v>
       </c>
@@ -7459,7 +7318,7 @@
         <v>381</v>
       </c>
       <c r="G85">
-        <v>348.57751000000002</v>
+        <v>348.57751</v>
       </c>
       <c r="H85" t="s">
         <v>383</v>
@@ -7495,7 +7354,7 @@
         <v>806</v>
       </c>
     </row>
-    <row r="86" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:18">
       <c r="A86" t="s">
         <v>49</v>
       </c>
@@ -7515,7 +7374,7 @@
         <v>381</v>
       </c>
       <c r="G86">
-        <v>348.57751000000002</v>
+        <v>348.57751</v>
       </c>
       <c r="H86" t="s">
         <v>383</v>
@@ -7551,7 +7410,7 @@
         <v>806</v>
       </c>
     </row>
-    <row r="87" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:18">
       <c r="A87" t="s">
         <v>81</v>
       </c>
@@ -7571,7 +7430,7 @@
         <v>381</v>
       </c>
       <c r="G87">
-        <v>933.06730000000005</v>
+        <v>933.0673</v>
       </c>
       <c r="H87" t="s">
         <v>383</v>
@@ -7607,7 +7466,7 @@
         <v>806</v>
       </c>
     </row>
-    <row r="88" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:18">
       <c r="A88" t="s">
         <v>82</v>
       </c>
@@ -7627,7 +7486,7 @@
         <v>381</v>
       </c>
       <c r="G88">
-        <v>284.05506000000003</v>
+        <v>284.05506</v>
       </c>
       <c r="H88" t="s">
         <v>383</v>
@@ -7663,7 +7522,7 @@
         <v>806</v>
       </c>
     </row>
-    <row r="89" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:18">
       <c r="A89" t="s">
         <v>83</v>
       </c>
@@ -7683,7 +7542,7 @@
         <v>381</v>
       </c>
       <c r="G89">
-        <v>186.90566999999999</v>
+        <v>186.90567</v>
       </c>
       <c r="H89" t="s">
         <v>383</v>
@@ -7719,7 +7578,7 @@
         <v>806</v>
       </c>
     </row>
-    <row r="90" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:18">
       <c r="A90" t="s">
         <v>84</v>
       </c>
@@ -7775,7 +7634,7 @@
         <v>806</v>
       </c>
     </row>
-    <row r="91" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:18">
       <c r="A91" t="s">
         <v>85</v>
       </c>
@@ -7831,7 +7690,7 @@
         <v>806</v>
       </c>
     </row>
-    <row r="92" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:18">
       <c r="A92" t="s">
         <v>86</v>
       </c>
@@ -7887,7 +7746,7 @@
         <v>806</v>
       </c>
     </row>
-    <row r="93" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:18">
       <c r="B93" t="s">
         <v>377</v>
       </c>
@@ -7934,7 +7793,7 @@
         <v>806</v>
       </c>
     </row>
-    <row r="94" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:18">
       <c r="A94" t="s">
         <v>87</v>
       </c>
@@ -7954,7 +7813,7 @@
         <v>381</v>
       </c>
       <c r="G94">
-        <v>191.03301999999999</v>
+        <v>191.03302</v>
       </c>
       <c r="H94" t="s">
         <v>383</v>
@@ -7990,7 +7849,7 @@
         <v>806</v>
       </c>
     </row>
-    <row r="95" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:18">
       <c r="A95" t="s">
         <v>88</v>
       </c>
@@ -8010,7 +7869,7 @@
         <v>381</v>
       </c>
       <c r="G95">
-        <v>180.68852999999999</v>
+        <v>180.68853</v>
       </c>
       <c r="H95" t="s">
         <v>383</v>
@@ -8046,7 +7905,7 @@
         <v>806</v>
       </c>
     </row>
-    <row r="96" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:18">
       <c r="A96" t="s">
         <v>89</v>
       </c>
@@ -8066,7 +7925,7 @@
         <v>381</v>
       </c>
       <c r="G96">
-        <v>186.80117999999999</v>
+        <v>186.80118</v>
       </c>
       <c r="H96" t="s">
         <v>383</v>
@@ -8102,7 +7961,7 @@
         <v>806</v>
       </c>
     </row>
-    <row r="97" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:18">
       <c r="A97" t="s">
         <v>90</v>
       </c>
@@ -8122,7 +7981,7 @@
         <v>381</v>
       </c>
       <c r="G97">
-        <v>343.35302000000001</v>
+        <v>343.35302</v>
       </c>
       <c r="H97" t="s">
         <v>383</v>
@@ -8158,7 +8017,7 @@
         <v>806</v>
       </c>
     </row>
-    <row r="98" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:18">
       <c r="A98" t="s">
         <v>91</v>
       </c>
@@ -8178,7 +8037,7 @@
         <v>381</v>
       </c>
       <c r="G98">
-        <v>411.63709999999998</v>
+        <v>411.6371</v>
       </c>
       <c r="H98" t="s">
         <v>383</v>
@@ -8214,7 +8073,7 @@
         <v>806</v>
       </c>
     </row>
-    <row r="99" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:18">
       <c r="A99" t="s">
         <v>92</v>
       </c>
@@ -8234,7 +8093,7 @@
         <v>381</v>
       </c>
       <c r="G99">
-        <v>275.43464999999998</v>
+        <v>275.43465</v>
       </c>
       <c r="H99" t="s">
         <v>383</v>
@@ -8270,7 +8129,7 @@
         <v>806</v>
       </c>
     </row>
-    <row r="100" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:18">
       <c r="A100" t="s">
         <v>93</v>
       </c>
@@ -8326,7 +8185,7 @@
         <v>806</v>
       </c>
     </row>
-    <row r="101" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:18">
       <c r="B101" t="s">
         <v>377</v>
       </c>
@@ -8373,7 +8232,7 @@
         <v>806</v>
       </c>
     </row>
-    <row r="102" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:18">
       <c r="B102" t="s">
         <v>377</v>
       </c>
@@ -8420,7 +8279,7 @@
         <v>806</v>
       </c>
     </row>
-    <row r="103" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:18">
       <c r="B103" t="s">
         <v>377</v>
       </c>
@@ -8467,7 +8326,7 @@
         <v>806</v>
       </c>
     </row>
-    <row r="104" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:18">
       <c r="B104" t="s">
         <v>377</v>
       </c>
@@ -8514,7 +8373,7 @@
         <v>806</v>
       </c>
     </row>
-    <row r="105" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:18">
       <c r="A105" t="s">
         <v>94</v>
       </c>
@@ -8534,7 +8393,7 @@
         <v>381</v>
       </c>
       <c r="G105">
-        <v>655.77751000000001</v>
+        <v>655.77751</v>
       </c>
       <c r="H105" t="s">
         <v>383</v>
@@ -8570,7 +8429,7 @@
         <v>806</v>
       </c>
     </row>
-    <row r="106" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:18">
       <c r="A106" t="s">
         <v>95</v>
       </c>
@@ -8590,7 +8449,7 @@
         <v>381</v>
       </c>
       <c r="G106">
-        <v>245.55056999999999</v>
+        <v>245.55057</v>
       </c>
       <c r="H106" t="s">
         <v>383</v>
@@ -8626,7 +8485,7 @@
         <v>806</v>
       </c>
     </row>
-    <row r="107" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:18">
       <c r="A107" t="s">
         <v>96</v>
       </c>
@@ -8646,7 +8505,7 @@
         <v>381</v>
       </c>
       <c r="G107">
-        <v>281.10322000000002</v>
+        <v>281.10322</v>
       </c>
       <c r="H107" t="s">
         <v>383</v>
@@ -8682,7 +8541,7 @@
         <v>806</v>
       </c>
     </row>
-    <row r="108" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:18">
       <c r="B108" t="s">
         <v>377</v>
       </c>
@@ -8729,7 +8588,7 @@
         <v>806</v>
       </c>
     </row>
-    <row r="109" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:18">
       <c r="A109" t="s">
         <v>97</v>
       </c>
@@ -8749,7 +8608,7 @@
         <v>381</v>
       </c>
       <c r="G109">
-        <v>225.90648999999999</v>
+        <v>225.90649</v>
       </c>
       <c r="H109" t="s">
         <v>383</v>
@@ -8785,7 +8644,7 @@
         <v>806</v>
       </c>
     </row>
-    <row r="110" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:18">
       <c r="B110" t="s">
         <v>377</v>
       </c>
@@ -8832,7 +8691,7 @@
         <v>806</v>
       </c>
     </row>
-    <row r="111" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:18">
       <c r="A111" t="s">
         <v>98</v>
       </c>
@@ -8888,7 +8747,7 @@
         <v>806</v>
       </c>
     </row>
-    <row r="112" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:18">
       <c r="A112" t="s">
         <v>99</v>
       </c>
@@ -8944,7 +8803,7 @@
         <v>806</v>
       </c>
     </row>
-    <row r="113" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:18">
       <c r="B113" t="s">
         <v>377</v>
       </c>
@@ -8991,7 +8850,7 @@
         <v>806</v>
       </c>
     </row>
-    <row r="114" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:18">
       <c r="A114" t="s">
         <v>100</v>
       </c>
@@ -9011,7 +8870,7 @@
         <v>381</v>
       </c>
       <c r="G114">
-        <v>214.43872999999999</v>
+        <v>214.43873</v>
       </c>
       <c r="H114" t="s">
         <v>383</v>
@@ -9047,7 +8906,7 @@
         <v>806</v>
       </c>
     </row>
-    <row r="115" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:18">
       <c r="B115" t="s">
         <v>377</v>
       </c>
@@ -9094,7 +8953,7 @@
         <v>806</v>
       </c>
     </row>
-    <row r="116" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:18">
       <c r="A116" t="s">
         <v>101</v>
       </c>
@@ -9114,7 +8973,7 @@
         <v>381</v>
       </c>
       <c r="G116">
-        <v>215.66649000000001</v>
+        <v>215.66649</v>
       </c>
       <c r="H116" t="s">
         <v>383</v>
@@ -9150,7 +9009,7 @@
         <v>806</v>
       </c>
     </row>
-    <row r="117" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:18">
       <c r="A117" t="s">
         <v>102</v>
       </c>
@@ -9170,7 +9029,7 @@
         <v>381</v>
       </c>
       <c r="G117">
-        <v>277.05423999999999</v>
+        <v>277.05424</v>
       </c>
       <c r="H117" t="s">
         <v>383</v>
@@ -9206,7 +9065,7 @@
         <v>806</v>
       </c>
     </row>
-    <row r="118" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:18">
       <c r="A118" t="s">
         <v>103</v>
       </c>
@@ -9226,7 +9085,7 @@
         <v>381</v>
       </c>
       <c r="G118">
-        <v>287.26812000000001</v>
+        <v>287.26812</v>
       </c>
       <c r="H118" t="s">
         <v>383</v>
@@ -9262,7 +9121,7 @@
         <v>806</v>
       </c>
     </row>
-    <row r="119" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:18">
       <c r="A119" t="s">
         <v>104</v>
       </c>
@@ -9318,7 +9177,7 @@
         <v>806</v>
       </c>
     </row>
-    <row r="120" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:18">
       <c r="A120" t="s">
         <v>105</v>
       </c>
@@ -9338,7 +9197,7 @@
         <v>381</v>
       </c>
       <c r="G120">
-        <v>290.19382999999999</v>
+        <v>290.19383</v>
       </c>
       <c r="H120" t="s">
         <v>383</v>
@@ -9374,7 +9233,7 @@
         <v>806</v>
       </c>
     </row>
-    <row r="121" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:18">
       <c r="A121" t="s">
         <v>106</v>
       </c>
@@ -9394,7 +9253,7 @@
         <v>381</v>
       </c>
       <c r="G121">
-        <v>329.09016000000003</v>
+        <v>329.09016</v>
       </c>
       <c r="H121" t="s">
         <v>383</v>
@@ -9430,7 +9289,7 @@
         <v>806</v>
       </c>
     </row>
-    <row r="122" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:18">
       <c r="A122" t="s">
         <v>107</v>
       </c>
@@ -9450,7 +9309,7 @@
         <v>381</v>
       </c>
       <c r="G122">
-        <v>112.66567000000001</v>
+        <v>112.66567</v>
       </c>
       <c r="H122" t="s">
         <v>383</v>
@@ -9486,7 +9345,7 @@
         <v>806</v>
       </c>
     </row>
-    <row r="123" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:18">
       <c r="A123" t="s">
         <v>108</v>
       </c>
@@ -9542,7 +9401,7 @@
         <v>806</v>
       </c>
     </row>
-    <row r="124" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:18">
       <c r="A124" t="s">
         <v>109</v>
       </c>
@@ -9562,7 +9421,7 @@
         <v>381</v>
       </c>
       <c r="G124">
-        <v>245.96852999999999</v>
+        <v>245.96853</v>
       </c>
       <c r="H124" t="s">
         <v>383</v>
@@ -9598,7 +9457,7 @@
         <v>806</v>
       </c>
     </row>
-    <row r="125" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:18">
       <c r="A125" t="s">
         <v>110</v>
       </c>
@@ -9618,7 +9477,7 @@
         <v>381</v>
       </c>
       <c r="G125">
-        <v>331.38893000000002</v>
+        <v>331.38893</v>
       </c>
       <c r="H125" t="s">
         <v>383</v>
@@ -9654,7 +9513,7 @@
         <v>806</v>
       </c>
     </row>
-    <row r="126" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:18">
       <c r="A126" t="s">
         <v>111</v>
       </c>
@@ -9674,7 +9533,7 @@
         <v>381</v>
       </c>
       <c r="G126">
-        <v>272.32607999999999</v>
+        <v>272.32608</v>
       </c>
       <c r="H126" t="s">
         <v>383</v>
@@ -9710,7 +9569,7 @@
         <v>806</v>
       </c>
     </row>
-    <row r="127" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:18">
       <c r="A127" t="s">
         <v>112</v>
       </c>
@@ -9730,7 +9589,7 @@
         <v>381</v>
       </c>
       <c r="G127">
-        <v>202.42240000000001</v>
+        <v>202.4224</v>
       </c>
       <c r="H127" t="s">
         <v>383</v>
@@ -9766,7 +9625,7 @@
         <v>806</v>
       </c>
     </row>
-    <row r="128" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:18">
       <c r="A128" t="s">
         <v>113</v>
       </c>
@@ -9786,7 +9645,7 @@
         <v>381</v>
       </c>
       <c r="G128">
-        <v>269.68770999999998</v>
+        <v>269.68771</v>
       </c>
       <c r="H128" t="s">
         <v>383</v>
@@ -9822,7 +9681,7 @@
         <v>806</v>
       </c>
     </row>
-    <row r="129" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:18">
       <c r="A129" t="s">
         <v>114</v>
       </c>
@@ -9842,7 +9701,7 @@
         <v>381</v>
       </c>
       <c r="G129">
-        <v>327.41831999999999</v>
+        <v>327.41832</v>
       </c>
       <c r="H129" t="s">
         <v>383</v>
@@ -9878,7 +9737,7 @@
         <v>806</v>
       </c>
     </row>
-    <row r="130" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:18">
       <c r="A130" t="s">
         <v>115</v>
       </c>
@@ -9898,7 +9757,7 @@
         <v>381</v>
       </c>
       <c r="G130">
-        <v>84.636279999999999</v>
+        <v>84.63628</v>
       </c>
       <c r="H130" t="s">
         <v>383</v>
@@ -9934,7 +9793,7 @@
         <v>806</v>
       </c>
     </row>
-    <row r="131" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:18">
       <c r="A131" t="s">
         <v>116</v>
       </c>
@@ -9954,7 +9813,7 @@
         <v>381</v>
       </c>
       <c r="G131">
-        <v>216.42403999999999</v>
+        <v>216.42404</v>
       </c>
       <c r="H131" t="s">
         <v>383</v>
@@ -9990,7 +9849,7 @@
         <v>806</v>
       </c>
     </row>
-    <row r="132" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:18">
       <c r="A132" t="s">
         <v>117</v>
       </c>
@@ -10010,7 +9869,7 @@
         <v>381</v>
       </c>
       <c r="G132">
-        <v>357.61586999999997</v>
+        <v>357.61587</v>
       </c>
       <c r="H132" t="s">
         <v>383</v>
@@ -10046,7 +9905,7 @@
         <v>806</v>
       </c>
     </row>
-    <row r="133" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:18">
       <c r="A133" t="s">
         <v>118</v>
       </c>
@@ -10066,7 +9925,7 @@
         <v>381</v>
       </c>
       <c r="G133">
-        <v>331.98975000000002</v>
+        <v>331.98975</v>
       </c>
       <c r="H133" t="s">
         <v>383</v>
@@ -10102,7 +9961,7 @@
         <v>806</v>
       </c>
     </row>
-    <row r="134" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:18">
       <c r="B134" t="s">
         <v>377</v>
       </c>
@@ -10149,7 +10008,7 @@
         <v>806</v>
       </c>
     </row>
-    <row r="135" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:18">
       <c r="B135" t="s">
         <v>377</v>
       </c>
@@ -10196,7 +10055,7 @@
         <v>806</v>
       </c>
     </row>
-    <row r="136" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:18">
       <c r="B136" t="s">
         <v>378</v>
       </c>
@@ -10222,7 +10081,7 @@
         <v>1541739272000</v>
       </c>
     </row>
-    <row r="137" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:18">
       <c r="B137" t="s">
         <v>378</v>
       </c>
@@ -10248,7 +10107,7 @@
         <v>1541739273000</v>
       </c>
     </row>
-    <row r="138" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:18">
       <c r="B138" t="s">
         <v>377</v>
       </c>
@@ -10295,7 +10154,7 @@
         <v>806</v>
       </c>
     </row>
-    <row r="139" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:18">
       <c r="A139" t="s">
         <v>119</v>
       </c>
@@ -10315,7 +10174,7 @@
         <v>381</v>
       </c>
       <c r="G139">
-        <v>279.24853000000002</v>
+        <v>279.24853</v>
       </c>
       <c r="H139" t="s">
         <v>383</v>
@@ -10351,7 +10210,7 @@
         <v>806</v>
       </c>
     </row>
-    <row r="140" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:18">
       <c r="A140" t="s">
         <v>120</v>
       </c>
@@ -10371,7 +10230,7 @@
         <v>381</v>
       </c>
       <c r="G140">
-        <v>236.09424000000001</v>
+        <v>236.09424</v>
       </c>
       <c r="H140" t="s">
         <v>383</v>
@@ -10407,7 +10266,7 @@
         <v>806</v>
       </c>
     </row>
-    <row r="141" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:18">
       <c r="A141" t="s">
         <v>121</v>
       </c>
@@ -10427,7 +10286,7 @@
         <v>381</v>
       </c>
       <c r="G141">
-        <v>490.21341999999999</v>
+        <v>490.21342</v>
       </c>
       <c r="H141" t="s">
         <v>383</v>
@@ -10463,7 +10322,7 @@
         <v>806</v>
       </c>
     </row>
-    <row r="142" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:18">
       <c r="A142" t="s">
         <v>122</v>
       </c>
@@ -10519,7 +10378,7 @@
         <v>806</v>
       </c>
     </row>
-    <row r="143" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:18">
       <c r="A143" t="s">
         <v>123</v>
       </c>
@@ -10539,7 +10398,7 @@
         <v>381</v>
       </c>
       <c r="G143">
-        <v>256.28689000000003</v>
+        <v>256.28689</v>
       </c>
       <c r="H143" t="s">
         <v>383</v>
@@ -10575,7 +10434,7 @@
         <v>806</v>
       </c>
     </row>
-    <row r="144" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:18">
       <c r="A144" t="s">
         <v>124</v>
       </c>
@@ -10631,7 +10490,7 @@
         <v>806</v>
       </c>
     </row>
-    <row r="145" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:18">
       <c r="A145" t="s">
         <v>125</v>
       </c>
@@ -10651,7 +10510,7 @@
         <v>381</v>
       </c>
       <c r="G145">
-        <v>253.25668999999999</v>
+        <v>253.25669</v>
       </c>
       <c r="H145" t="s">
         <v>383</v>
@@ -10687,7 +10546,7 @@
         <v>806</v>
       </c>
     </row>
-    <row r="146" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:18">
       <c r="B146" t="s">
         <v>377</v>
       </c>
@@ -10734,7 +10593,7 @@
         <v>806</v>
       </c>
     </row>
-    <row r="147" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:18">
       <c r="A147" t="s">
         <v>126</v>
       </c>
@@ -10790,7 +10649,7 @@
         <v>806</v>
       </c>
     </row>
-    <row r="148" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:18">
       <c r="A148" t="s">
         <v>127</v>
       </c>
@@ -10846,7 +10705,7 @@
         <v>806</v>
       </c>
     </row>
-    <row r="149" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:18">
       <c r="A149" t="s">
         <v>128</v>
       </c>
@@ -10902,7 +10761,7 @@
         <v>806</v>
       </c>
     </row>
-    <row r="150" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:18">
       <c r="A150" t="s">
         <v>129</v>
       </c>
@@ -10958,7 +10817,7 @@
         <v>806</v>
       </c>
     </row>
-    <row r="151" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:18">
       <c r="A151" t="s">
         <v>130</v>
       </c>
@@ -10978,7 +10837,7 @@
         <v>381</v>
       </c>
       <c r="G151">
-        <v>339.17342000000002</v>
+        <v>339.17342</v>
       </c>
       <c r="H151" t="s">
         <v>383</v>
@@ -11014,7 +10873,7 @@
         <v>806</v>
       </c>
     </row>
-    <row r="152" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:18">
       <c r="A152" t="s">
         <v>131</v>
       </c>
@@ -11034,7 +10893,7 @@
         <v>381</v>
       </c>
       <c r="G152">
-        <v>297.53424000000001</v>
+        <v>297.53424</v>
       </c>
       <c r="H152" t="s">
         <v>383</v>
@@ -11070,7 +10929,7 @@
         <v>806</v>
       </c>
     </row>
-    <row r="153" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:18">
       <c r="A153" t="s">
         <v>132</v>
       </c>
@@ -11126,7 +10985,7 @@
         <v>806</v>
       </c>
     </row>
-    <row r="154" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:18">
       <c r="A154" t="s">
         <v>133</v>
       </c>
@@ -11146,7 +11005,7 @@
         <v>381</v>
       </c>
       <c r="G154">
-        <v>228.85831999999999</v>
+        <v>228.85832</v>
       </c>
       <c r="H154" t="s">
         <v>383</v>
@@ -11182,7 +11041,7 @@
         <v>806</v>
       </c>
     </row>
-    <row r="155" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:18">
       <c r="B155" t="s">
         <v>377</v>
       </c>
@@ -11229,7 +11088,7 @@
         <v>806</v>
       </c>
     </row>
-    <row r="156" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:18">
       <c r="A156" t="s">
         <v>134</v>
       </c>
@@ -11285,7 +11144,7 @@
         <v>806</v>
       </c>
     </row>
-    <row r="157" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:18">
       <c r="A157" t="s">
         <v>135</v>
       </c>
@@ -11305,7 +11164,7 @@
         <v>381</v>
       </c>
       <c r="G157">
-        <v>238.18404000000001</v>
+        <v>238.18404</v>
       </c>
       <c r="H157" t="s">
         <v>383</v>
@@ -11341,7 +11200,7 @@
         <v>806</v>
       </c>
     </row>
-    <row r="158" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:18">
       <c r="A158" t="s">
         <v>136</v>
       </c>
@@ -11361,7 +11220,7 @@
         <v>381</v>
       </c>
       <c r="G158">
-        <v>284.29016000000001</v>
+        <v>284.29016</v>
       </c>
       <c r="H158" t="s">
         <v>383</v>
@@ -11397,7 +11256,7 @@
         <v>806</v>
       </c>
     </row>
-    <row r="159" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:18">
       <c r="A159" t="s">
         <v>78</v>
       </c>
@@ -11417,7 +11276,7 @@
         <v>381</v>
       </c>
       <c r="G159">
-        <v>226.53342000000001</v>
+        <v>226.53342</v>
       </c>
       <c r="H159" t="s">
         <v>383</v>
@@ -11453,7 +11312,7 @@
         <v>806</v>
       </c>
     </row>
-    <row r="160" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:18">
       <c r="A160" t="s">
         <v>137</v>
       </c>
@@ -11473,7 +11332,7 @@
         <v>381</v>
       </c>
       <c r="G160">
-        <v>189.09995000000001</v>
+        <v>189.09995</v>
       </c>
       <c r="H160" t="s">
         <v>383</v>
@@ -11509,7 +11368,7 @@
         <v>806</v>
       </c>
     </row>
-    <row r="161" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:18">
       <c r="A161" t="s">
         <v>138</v>
       </c>
@@ -11565,7 +11424,7 @@
         <v>806</v>
       </c>
     </row>
-    <row r="162" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:18">
       <c r="B162" t="s">
         <v>377</v>
       </c>
@@ -11612,7 +11471,7 @@
         <v>806</v>
       </c>
     </row>
-    <row r="163" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:18">
       <c r="A163" t="s">
         <v>139</v>
       </c>
@@ -11632,7 +11491,7 @@
         <v>381</v>
       </c>
       <c r="G163">
-        <v>259.89179000000001</v>
+        <v>259.89179</v>
       </c>
       <c r="H163" t="s">
         <v>383</v>
@@ -11668,7 +11527,7 @@
         <v>806</v>
       </c>
     </row>
-    <row r="164" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:18">
       <c r="A164" t="s">
         <v>140</v>
       </c>
@@ -11688,7 +11547,7 @@
         <v>381</v>
       </c>
       <c r="G164">
-        <v>489.29914000000002</v>
+        <v>489.29914</v>
       </c>
       <c r="H164" t="s">
         <v>383</v>
@@ -11724,7 +11583,7 @@
         <v>806</v>
       </c>
     </row>
-    <row r="165" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:18">
       <c r="A165" t="s">
         <v>141</v>
       </c>
@@ -11744,7 +11603,7 @@
         <v>381</v>
       </c>
       <c r="G165">
-        <v>307.61750999999998</v>
+        <v>307.61751</v>
       </c>
       <c r="H165" t="s">
         <v>383</v>
@@ -11780,7 +11639,7 @@
         <v>806</v>
       </c>
     </row>
-    <row r="166" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:18">
       <c r="A166" t="s">
         <v>47</v>
       </c>
@@ -11836,7 +11695,7 @@
         <v>806</v>
       </c>
     </row>
-    <row r="167" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:18">
       <c r="A167" t="s">
         <v>142</v>
       </c>
@@ -11856,7 +11715,7 @@
         <v>381</v>
       </c>
       <c r="G167">
-        <v>425.71710000000002</v>
+        <v>425.7171</v>
       </c>
       <c r="H167" t="s">
         <v>383</v>
@@ -11892,7 +11751,7 @@
         <v>806</v>
       </c>
     </row>
-    <row r="168" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:18">
       <c r="A168" t="s">
         <v>143</v>
       </c>
@@ -11948,7 +11807,7 @@
         <v>806</v>
       </c>
     </row>
-    <row r="169" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:18">
       <c r="A169" t="s">
         <v>144</v>
       </c>
@@ -11968,7 +11827,7 @@
         <v>381</v>
       </c>
       <c r="G169">
-        <v>324.98892999999998</v>
+        <v>324.98893</v>
       </c>
       <c r="H169" t="s">
         <v>383</v>
@@ -12004,7 +11863,7 @@
         <v>806</v>
       </c>
     </row>
-    <row r="170" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:18">
       <c r="A170" t="s">
         <v>145</v>
       </c>
@@ -12024,7 +11883,7 @@
         <v>381</v>
       </c>
       <c r="G170">
-        <v>150.83056999999999</v>
+        <v>150.83057</v>
       </c>
       <c r="H170" t="s">
         <v>383</v>
@@ -12060,7 +11919,7 @@
         <v>806</v>
       </c>
     </row>
-    <row r="171" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:18">
       <c r="A171" t="s">
         <v>146</v>
       </c>
@@ -12080,7 +11939,7 @@
         <v>381</v>
       </c>
       <c r="G171">
-        <v>189.64852999999999</v>
+        <v>189.64853</v>
       </c>
       <c r="H171" t="s">
         <v>383</v>
@@ -12116,7 +11975,7 @@
         <v>806</v>
       </c>
     </row>
-    <row r="172" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:18">
       <c r="A172" t="s">
         <v>147</v>
       </c>
@@ -12136,7 +11995,7 @@
         <v>381</v>
       </c>
       <c r="G172">
-        <v>280.21505999999999</v>
+        <v>280.21506</v>
       </c>
       <c r="H172" t="s">
         <v>383</v>
@@ -12172,7 +12031,7 @@
         <v>806</v>
       </c>
     </row>
-    <row r="173" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:18">
       <c r="A173" t="s">
         <v>148</v>
       </c>
@@ -12192,7 +12051,7 @@
         <v>381</v>
       </c>
       <c r="G173">
-        <v>182.15137999999999</v>
+        <v>182.15138</v>
       </c>
       <c r="H173" t="s">
         <v>383</v>
@@ -12228,7 +12087,7 @@
         <v>806</v>
       </c>
     </row>
-    <row r="174" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:18">
       <c r="A174" t="s">
         <v>149</v>
       </c>
@@ -12248,7 +12107,7 @@
         <v>381</v>
       </c>
       <c r="G174">
-        <v>258.40280999999999</v>
+        <v>258.40281</v>
       </c>
       <c r="H174" t="s">
         <v>383</v>
@@ -12284,7 +12143,7 @@
         <v>806</v>
       </c>
     </row>
-    <row r="175" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:18">
       <c r="A175" t="s">
         <v>150</v>
       </c>
@@ -12304,7 +12163,7 @@
         <v>381</v>
       </c>
       <c r="G175">
-        <v>99.160359999999997</v>
+        <v>99.16036</v>
       </c>
       <c r="H175" t="s">
         <v>383</v>
@@ -12340,7 +12199,7 @@
         <v>806</v>
       </c>
     </row>
-    <row r="176" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:18">
       <c r="B176" t="s">
         <v>377</v>
       </c>
@@ -12387,7 +12246,7 @@
         <v>806</v>
       </c>
     </row>
-    <row r="177" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:18">
       <c r="A177" t="s">
         <v>151</v>
       </c>
@@ -12407,7 +12266,7 @@
         <v>381</v>
       </c>
       <c r="G177">
-        <v>257.80200000000002</v>
+        <v>257.802</v>
       </c>
       <c r="H177" t="s">
         <v>383</v>
@@ -12443,7 +12302,7 @@
         <v>806</v>
       </c>
     </row>
-    <row r="178" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:18">
       <c r="A178" t="s">
         <v>84</v>
       </c>
@@ -12463,7 +12322,7 @@
         <v>381</v>
       </c>
       <c r="G178">
-        <v>286.24934000000002</v>
+        <v>286.24934</v>
       </c>
       <c r="H178" t="s">
         <v>383</v>
@@ -12499,7 +12358,7 @@
         <v>806</v>
       </c>
     </row>
-    <row r="179" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:18">
       <c r="B179" t="s">
         <v>377</v>
       </c>
@@ -12546,7 +12405,7 @@
         <v>806</v>
       </c>
     </row>
-    <row r="180" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:18">
       <c r="A180" t="s">
         <v>93</v>
       </c>
@@ -12602,7 +12461,7 @@
         <v>806</v>
       </c>
     </row>
-    <row r="181" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:18">
       <c r="A181" t="s">
         <v>152</v>
       </c>
@@ -12658,7 +12517,7 @@
         <v>806</v>
       </c>
     </row>
-    <row r="182" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:18">
       <c r="A182" t="s">
         <v>153</v>
       </c>
@@ -12678,7 +12537,7 @@
         <v>381</v>
       </c>
       <c r="G182">
-        <v>158.24933999999999</v>
+        <v>158.24934</v>
       </c>
       <c r="H182" t="s">
         <v>383</v>
@@ -12714,7 +12573,7 @@
         <v>806</v>
       </c>
     </row>
-    <row r="183" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:18">
       <c r="A183" t="s">
         <v>109</v>
       </c>
@@ -12734,7 +12593,7 @@
         <v>381</v>
       </c>
       <c r="G183">
-        <v>167.65342000000001</v>
+        <v>167.65342</v>
       </c>
       <c r="H183" t="s">
         <v>383</v>
@@ -12770,7 +12629,7 @@
         <v>806</v>
       </c>
     </row>
-    <row r="184" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:18">
       <c r="A184" t="s">
         <v>154</v>
       </c>
@@ -12790,7 +12649,7 @@
         <v>381</v>
       </c>
       <c r="G184">
-        <v>182.93505999999999</v>
+        <v>182.93506</v>
       </c>
       <c r="H184" t="s">
         <v>383</v>
@@ -12826,7 +12685,7 @@
         <v>806</v>
       </c>
     </row>
-    <row r="185" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:18">
       <c r="A185" t="s">
         <v>155</v>
       </c>
@@ -12846,7 +12705,7 @@
         <v>381</v>
       </c>
       <c r="G185">
-        <v>122.04362999999999</v>
+        <v>122.04363</v>
       </c>
       <c r="H185" t="s">
         <v>383</v>
@@ -12882,7 +12741,7 @@
         <v>806</v>
       </c>
     </row>
-    <row r="186" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:18">
       <c r="A186" t="s">
         <v>156</v>
       </c>
@@ -12902,7 +12761,7 @@
         <v>381</v>
       </c>
       <c r="G186">
-        <v>260.04853000000003</v>
+        <v>260.04853</v>
       </c>
       <c r="H186" t="s">
         <v>383</v>
@@ -12938,7 +12797,7 @@
         <v>806</v>
       </c>
     </row>
-    <row r="187" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:18">
       <c r="A187" t="s">
         <v>157</v>
       </c>
@@ -12958,7 +12817,7 @@
         <v>381</v>
       </c>
       <c r="G187">
-        <v>273.10975000000002</v>
+        <v>273.10975</v>
       </c>
       <c r="H187" t="s">
         <v>383</v>
@@ -12994,7 +12853,7 @@
         <v>806</v>
       </c>
     </row>
-    <row r="188" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:18">
       <c r="A188" t="s">
         <v>30</v>
       </c>
@@ -13014,7 +12873,7 @@
         <v>381</v>
       </c>
       <c r="G188">
-        <v>265.84771000000001</v>
+        <v>265.84771</v>
       </c>
       <c r="H188" t="s">
         <v>383</v>
@@ -13050,7 +12909,7 @@
         <v>806</v>
       </c>
     </row>
-    <row r="189" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:18">
       <c r="A189" t="s">
         <v>158</v>
       </c>
@@ -13106,7 +12965,7 @@
         <v>806</v>
       </c>
     </row>
-    <row r="190" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:18">
       <c r="A190" t="s">
         <v>159</v>
       </c>
@@ -13126,7 +12985,7 @@
         <v>381</v>
       </c>
       <c r="G190">
-        <v>178.05016000000001</v>
+        <v>178.05016</v>
       </c>
       <c r="H190" t="s">
         <v>383</v>
@@ -13162,7 +13021,7 @@
         <v>806</v>
       </c>
     </row>
-    <row r="191" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:18">
       <c r="A191" t="s">
         <v>160</v>
       </c>
@@ -13182,7 +13041,7 @@
         <v>381</v>
       </c>
       <c r="G191">
-        <v>307.09505999999999</v>
+        <v>307.09506</v>
       </c>
       <c r="H191" t="s">
         <v>383</v>
@@ -13218,7 +13077,7 @@
         <v>806</v>
       </c>
     </row>
-    <row r="192" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:18">
       <c r="B192" t="s">
         <v>377</v>
       </c>
@@ -13265,7 +13124,7 @@
         <v>806</v>
       </c>
     </row>
-    <row r="193" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:18">
       <c r="A193" t="s">
         <v>161</v>
       </c>
@@ -13285,7 +13144,7 @@
         <v>381</v>
       </c>
       <c r="G193">
-        <v>272.50893000000002</v>
+        <v>272.50893</v>
       </c>
       <c r="H193" t="s">
         <v>383</v>
@@ -13321,7 +13180,7 @@
         <v>806</v>
       </c>
     </row>
-    <row r="194" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:18">
       <c r="A194" t="s">
         <v>162</v>
       </c>
@@ -13341,7 +13200,7 @@
         <v>381</v>
       </c>
       <c r="G194">
-        <v>326.86975000000001</v>
+        <v>326.86975</v>
       </c>
       <c r="H194" t="s">
         <v>383</v>
@@ -13377,7 +13236,7 @@
         <v>806</v>
       </c>
     </row>
-    <row r="195" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:18">
       <c r="A195" t="s">
         <v>163</v>
       </c>
@@ -13433,7 +13292,7 @@
         <v>806</v>
       </c>
     </row>
-    <row r="196" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:18">
       <c r="A196" t="s">
         <v>164</v>
       </c>
@@ -13453,7 +13312,7 @@
         <v>381</v>
       </c>
       <c r="G196">
-        <v>299.88526000000002</v>
+        <v>299.88526</v>
       </c>
       <c r="H196" t="s">
         <v>383</v>
@@ -13489,7 +13348,7 @@
         <v>806</v>
       </c>
     </row>
-    <row r="197" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="197" spans="1:18">
       <c r="A197" t="s">
         <v>165</v>
       </c>
@@ -13509,7 +13368,7 @@
         <v>381</v>
       </c>
       <c r="G197">
-        <v>185.83465000000001</v>
+        <v>185.83465</v>
       </c>
       <c r="H197" t="s">
         <v>383</v>
@@ -13545,7 +13404,7 @@
         <v>806</v>
       </c>
     </row>
-    <row r="198" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:18">
       <c r="A198" t="s">
         <v>166</v>
       </c>
@@ -13601,7 +13460,7 @@
         <v>806</v>
       </c>
     </row>
-    <row r="199" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="199" spans="1:18">
       <c r="A199" t="s">
         <v>167</v>
       </c>
@@ -13621,7 +13480,7 @@
         <v>381</v>
       </c>
       <c r="G199">
-        <v>267.65016000000003</v>
+        <v>267.65016</v>
       </c>
       <c r="H199" t="s">
         <v>383</v>
@@ -13657,7 +13516,7 @@
         <v>806</v>
       </c>
     </row>
-    <row r="200" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="200" spans="1:18">
       <c r="A200" t="s">
         <v>168</v>
       </c>
@@ -13677,7 +13536,7 @@
         <v>381</v>
       </c>
       <c r="G200">
-        <v>236.12036000000001</v>
+        <v>236.12036</v>
       </c>
       <c r="H200" t="s">
         <v>383</v>
@@ -13713,7 +13572,7 @@
         <v>806</v>
       </c>
     </row>
-    <row r="201" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="201" spans="1:18">
       <c r="A201" t="s">
         <v>169</v>
       </c>
@@ -13733,7 +13592,7 @@
         <v>381</v>
       </c>
       <c r="G201">
-        <v>182.28200000000001</v>
+        <v>182.282</v>
       </c>
       <c r="H201" t="s">
         <v>383</v>
@@ -13769,7 +13628,7 @@
         <v>806</v>
       </c>
     </row>
-    <row r="202" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="202" spans="1:18">
       <c r="A202" t="s">
         <v>170</v>
       </c>
@@ -13789,7 +13648,7 @@
         <v>381</v>
       </c>
       <c r="G202">
-        <v>237.08689000000001</v>
+        <v>237.08689</v>
       </c>
       <c r="H202" t="s">
         <v>383</v>
@@ -13825,7 +13684,7 @@
         <v>806</v>
       </c>
     </row>
-    <row r="203" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="203" spans="1:18">
       <c r="A203" t="s">
         <v>171</v>
       </c>
@@ -13845,7 +13704,7 @@
         <v>381</v>
       </c>
       <c r="G203">
-        <v>272.16933999999998</v>
+        <v>272.16934</v>
       </c>
       <c r="H203" t="s">
         <v>383</v>
@@ -13881,7 +13740,7 @@
         <v>806</v>
       </c>
     </row>
-    <row r="204" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="204" spans="1:18">
       <c r="A204" t="s">
         <v>172</v>
       </c>
@@ -13901,7 +13760,7 @@
         <v>381</v>
       </c>
       <c r="G204">
-        <v>515.21261000000004</v>
+        <v>515.21261</v>
       </c>
       <c r="H204" t="s">
         <v>383</v>
@@ -13937,7 +13796,7 @@
         <v>806</v>
       </c>
     </row>
-    <row r="205" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="205" spans="1:18">
       <c r="A205" t="s">
         <v>173</v>
       </c>
@@ -13957,7 +13816,7 @@
         <v>381</v>
       </c>
       <c r="G205">
-        <v>182.88281000000001</v>
+        <v>182.88281</v>
       </c>
       <c r="H205" t="s">
         <v>383</v>
@@ -13993,7 +13852,7 @@
         <v>806</v>
       </c>
     </row>
-    <row r="206" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="206" spans="1:18">
       <c r="A206" t="s">
         <v>174</v>
       </c>
@@ -14013,7 +13872,7 @@
         <v>381</v>
       </c>
       <c r="G206">
-        <v>249.83465000000001</v>
+        <v>249.83465</v>
       </c>
       <c r="H206" t="s">
         <v>383</v>
@@ -14049,7 +13908,7 @@
         <v>806</v>
       </c>
     </row>
-    <row r="207" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="207" spans="1:18">
       <c r="A207" t="s">
         <v>175</v>
       </c>
@@ -14069,7 +13928,7 @@
         <v>381</v>
       </c>
       <c r="G207">
-        <v>208.53505999999999</v>
+        <v>208.53506</v>
       </c>
       <c r="H207" t="s">
         <v>383</v>
@@ -14105,7 +13964,7 @@
         <v>806</v>
       </c>
     </row>
-    <row r="208" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="208" spans="1:18">
       <c r="A208" t="s">
         <v>176</v>
       </c>
@@ -14125,7 +13984,7 @@
         <v>381</v>
       </c>
       <c r="G208">
-        <v>325.40688999999998</v>
+        <v>325.40689</v>
       </c>
       <c r="H208" t="s">
         <v>383</v>
@@ -14161,7 +14020,7 @@
         <v>806</v>
       </c>
     </row>
-    <row r="209" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="209" spans="1:18">
       <c r="A209" t="s">
         <v>177</v>
       </c>
@@ -14217,7 +14076,7 @@
         <v>806</v>
       </c>
     </row>
-    <row r="210" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="210" spans="1:18">
       <c r="A210" t="s">
         <v>178</v>
       </c>
@@ -14237,7 +14096,7 @@
         <v>381</v>
       </c>
       <c r="G210">
-        <v>211.12118000000001</v>
+        <v>211.12118</v>
       </c>
       <c r="H210" t="s">
         <v>383</v>
@@ -14273,7 +14132,7 @@
         <v>806</v>
       </c>
     </row>
-    <row r="211" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="211" spans="1:18">
       <c r="B211" t="s">
         <v>377</v>
       </c>
@@ -14320,7 +14179,7 @@
         <v>806</v>
       </c>
     </row>
-    <row r="212" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="212" spans="1:18">
       <c r="A212" t="s">
         <v>179</v>
       </c>
@@ -14376,7 +14235,7 @@
         <v>806</v>
       </c>
     </row>
-    <row r="213" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="213" spans="1:18">
       <c r="A213" t="s">
         <v>180</v>
       </c>
@@ -14396,7 +14255,7 @@
         <v>381</v>
       </c>
       <c r="G213">
-        <v>267.78077000000002</v>
+        <v>267.78077</v>
       </c>
       <c r="H213" t="s">
         <v>383</v>
@@ -14432,7 +14291,7 @@
         <v>806</v>
       </c>
     </row>
-    <row r="214" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="214" spans="1:18">
       <c r="A214" t="s">
         <v>181</v>
       </c>
@@ -14452,7 +14311,7 @@
         <v>381</v>
       </c>
       <c r="G214">
-        <v>249.20770999999999</v>
+        <v>249.20771</v>
       </c>
       <c r="H214" t="s">
         <v>383</v>
@@ -14488,7 +14347,7 @@
         <v>806</v>
       </c>
     </row>
-    <row r="215" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="215" spans="1:18">
       <c r="A215" t="s">
         <v>182</v>
       </c>
@@ -14544,7 +14403,7 @@
         <v>806</v>
       </c>
     </row>
-    <row r="216" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="216" spans="1:18">
       <c r="A216" t="s">
         <v>183</v>
       </c>
@@ -14600,7 +14459,7 @@
         <v>806</v>
       </c>
     </row>
-    <row r="217" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="217" spans="1:18">
       <c r="A217" t="s">
         <v>184</v>
       </c>
@@ -14620,7 +14479,7 @@
         <v>381</v>
       </c>
       <c r="G217">
-        <v>192.80933999999999</v>
+        <v>192.80934</v>
       </c>
       <c r="H217" t="s">
         <v>383</v>
@@ -14656,7 +14515,7 @@
         <v>806</v>
       </c>
     </row>
-    <row r="218" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="218" spans="1:18">
       <c r="A218" t="s">
         <v>185</v>
       </c>
@@ -14676,7 +14535,7 @@
         <v>381</v>
       </c>
       <c r="G218">
-        <v>257.59302000000002</v>
+        <v>257.59302</v>
       </c>
       <c r="H218" t="s">
         <v>383</v>
@@ -14712,7 +14571,7 @@
         <v>806</v>
       </c>
     </row>
-    <row r="219" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="219" spans="1:18">
       <c r="B219" t="s">
         <v>377</v>
       </c>
@@ -14759,7 +14618,7 @@
         <v>806</v>
       </c>
     </row>
-    <row r="220" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="220" spans="1:18">
       <c r="B220" t="s">
         <v>377</v>
       </c>
@@ -14806,7 +14665,7 @@
         <v>806</v>
       </c>
     </row>
-    <row r="221" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="221" spans="1:18">
       <c r="A221" t="s">
         <v>186</v>
       </c>
@@ -14826,7 +14685,7 @@
         <v>381</v>
       </c>
       <c r="G221">
-        <v>250.82730000000001</v>
+        <v>250.8273</v>
       </c>
       <c r="H221" t="s">
         <v>383</v>
@@ -14862,7 +14721,7 @@
         <v>806</v>
       </c>
     </row>
-    <row r="222" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="222" spans="1:18">
       <c r="B222" t="s">
         <v>377</v>
       </c>
@@ -14909,7 +14768,7 @@
         <v>806</v>
       </c>
     </row>
-    <row r="223" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="223" spans="1:18">
       <c r="A223" t="s">
         <v>187</v>
       </c>
@@ -14929,7 +14788,7 @@
         <v>381</v>
       </c>
       <c r="G223">
-        <v>239.85587000000001</v>
+        <v>239.85587</v>
       </c>
       <c r="H223" t="s">
         <v>383</v>
@@ -14965,7 +14824,7 @@
         <v>806</v>
       </c>
     </row>
-    <row r="224" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="224" spans="1:18">
       <c r="A224" t="s">
         <v>188</v>
       </c>
@@ -14985,7 +14844,7 @@
         <v>381</v>
       </c>
       <c r="G224">
-        <v>261.06729999999999</v>
+        <v>261.0673</v>
       </c>
       <c r="H224" t="s">
         <v>383</v>
@@ -15021,7 +14880,7 @@
         <v>806</v>
       </c>
     </row>
-    <row r="225" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="225" spans="1:18">
       <c r="A225" t="s">
         <v>189</v>
       </c>
@@ -15041,7 +14900,7 @@
         <v>381</v>
       </c>
       <c r="G225">
-        <v>234.78811999999999</v>
+        <v>234.78812</v>
       </c>
       <c r="H225" t="s">
         <v>383</v>
@@ -15077,7 +14936,7 @@
         <v>806</v>
       </c>
     </row>
-    <row r="226" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="226" spans="1:18">
       <c r="A226" t="s">
         <v>190</v>
       </c>
@@ -15133,7 +14992,7 @@
         <v>806</v>
       </c>
     </row>
-    <row r="227" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="227" spans="1:18">
       <c r="A227" t="s">
         <v>191</v>
       </c>
@@ -15153,7 +15012,7 @@
         <v>381</v>
       </c>
       <c r="G227">
-        <v>303.67302000000001</v>
+        <v>303.67302</v>
       </c>
       <c r="H227" t="s">
         <v>383</v>
@@ -15189,7 +15048,7 @@
         <v>806</v>
       </c>
     </row>
-    <row r="228" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="228" spans="1:18">
       <c r="A228" t="s">
         <v>192</v>
       </c>
@@ -15209,7 +15068,7 @@
         <v>381</v>
       </c>
       <c r="G228">
-        <v>222.17097999999999</v>
+        <v>222.17098</v>
       </c>
       <c r="H228" t="s">
         <v>383</v>
@@ -15245,7 +15104,7 @@
         <v>806</v>
       </c>
     </row>
-    <row r="229" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="229" spans="1:18">
       <c r="B229" t="s">
         <v>377</v>
       </c>
@@ -15292,7 +15151,7 @@
         <v>806</v>
       </c>
     </row>
-    <row r="230" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="230" spans="1:18">
       <c r="A230" t="s">
         <v>165</v>
       </c>
@@ -15312,7 +15171,7 @@
         <v>381</v>
       </c>
       <c r="G230">
-        <v>185.83465000000001</v>
+        <v>185.83465</v>
       </c>
       <c r="H230" t="s">
         <v>383</v>
@@ -15348,7 +15207,7 @@
         <v>806</v>
       </c>
     </row>
-    <row r="231" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="231" spans="1:18">
       <c r="A231" t="s">
         <v>193</v>
       </c>
@@ -15368,7 +15227,7 @@
         <v>381</v>
       </c>
       <c r="G231">
-        <v>371.43464999999998</v>
+        <v>371.43465</v>
       </c>
       <c r="H231" t="s">
         <v>383</v>
@@ -15404,7 +15263,7 @@
         <v>806</v>
       </c>
     </row>
-    <row r="232" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="232" spans="1:18">
       <c r="A232" t="s">
         <v>194</v>
       </c>
@@ -15424,7 +15283,7 @@
         <v>381</v>
       </c>
       <c r="G232">
-        <v>355.39546000000001</v>
+        <v>355.39546</v>
       </c>
       <c r="H232" t="s">
         <v>383</v>
@@ -15460,7 +15319,7 @@
         <v>806</v>
       </c>
     </row>
-    <row r="233" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="233" spans="1:18">
       <c r="A233" t="s">
         <v>195</v>
       </c>
@@ -15516,7 +15375,7 @@
         <v>806</v>
       </c>
     </row>
-    <row r="234" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="234" spans="1:18">
       <c r="A234" t="s">
         <v>196</v>
       </c>
@@ -15572,7 +15431,7 @@
         <v>806</v>
       </c>
     </row>
-    <row r="235" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="235" spans="1:18">
       <c r="A235" t="s">
         <v>197</v>
       </c>
@@ -15592,7 +15451,7 @@
         <v>381</v>
       </c>
       <c r="G235">
-        <v>191.55546000000001</v>
+        <v>191.55546</v>
       </c>
       <c r="H235" t="s">
         <v>383</v>
@@ -15628,7 +15487,7 @@
         <v>806</v>
       </c>
     </row>
-    <row r="236" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="236" spans="1:18">
       <c r="B236" t="s">
         <v>377</v>
       </c>
@@ -15675,7 +15534,7 @@
         <v>806</v>
       </c>
     </row>
-    <row r="237" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="237" spans="1:18">
       <c r="B237" t="s">
         <v>377</v>
       </c>
@@ -15722,7 +15581,7 @@
         <v>806</v>
       </c>
     </row>
-    <row r="238" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="238" spans="1:18">
       <c r="B238" t="s">
         <v>377</v>
       </c>
@@ -15769,7 +15628,7 @@
         <v>806</v>
       </c>
     </row>
-    <row r="239" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="239" spans="1:18">
       <c r="A239" t="s">
         <v>198</v>
       </c>
@@ -15789,7 +15648,7 @@
         <v>381</v>
       </c>
       <c r="G239">
-        <v>304.84852999999998</v>
+        <v>304.84853</v>
       </c>
       <c r="H239" t="s">
         <v>383</v>
@@ -15825,7 +15684,7 @@
         <v>806</v>
       </c>
     </row>
-    <row r="240" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="240" spans="1:18">
       <c r="A240" t="s">
         <v>199</v>
       </c>
@@ -15845,7 +15704,7 @@
         <v>381</v>
       </c>
       <c r="G240">
-        <v>250.14812000000001</v>
+        <v>250.14812</v>
       </c>
       <c r="H240" t="s">
         <v>383</v>
@@ -15881,7 +15740,7 @@
         <v>806</v>
       </c>
     </row>
-    <row r="241" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="241" spans="1:18">
       <c r="A241" t="s">
         <v>200</v>
       </c>
@@ -15901,7 +15760,7 @@
         <v>381</v>
       </c>
       <c r="G241">
-        <v>202.73587000000001</v>
+        <v>202.73587</v>
       </c>
       <c r="H241" t="s">
         <v>383</v>
@@ -15937,7 +15796,7 @@
         <v>806</v>
       </c>
     </row>
-    <row r="242" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="242" spans="1:18">
       <c r="B242" t="s">
         <v>377</v>
       </c>
@@ -15984,7 +15843,7 @@
         <v>806</v>
       </c>
     </row>
-    <row r="243" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="243" spans="1:18">
       <c r="A243" t="s">
         <v>201</v>
       </c>
@@ -16004,7 +15863,7 @@
         <v>381</v>
       </c>
       <c r="G243">
-        <v>250.14812000000001</v>
+        <v>250.14812</v>
       </c>
       <c r="H243" t="s">
         <v>383</v>
@@ -16040,7 +15899,7 @@
         <v>806</v>
       </c>
     </row>
-    <row r="244" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="244" spans="1:18">
       <c r="A244" t="s">
         <v>202</v>
       </c>
@@ -16096,7 +15955,7 @@
         <v>806</v>
       </c>
     </row>
-    <row r="245" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="245" spans="1:18">
       <c r="B245" t="s">
         <v>377</v>
       </c>
@@ -16143,7 +16002,7 @@
         <v>806</v>
       </c>
     </row>
-    <row r="246" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="246" spans="1:18">
       <c r="A246" t="s">
         <v>203</v>
       </c>
@@ -16163,7 +16022,7 @@
         <v>381</v>
       </c>
       <c r="G246">
-        <v>202.73587000000001</v>
+        <v>202.73587</v>
       </c>
       <c r="H246" t="s">
         <v>383</v>
@@ -16199,7 +16058,7 @@
         <v>806</v>
       </c>
     </row>
-    <row r="247" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="247" spans="1:18">
       <c r="A247" t="s">
         <v>131</v>
       </c>
@@ -16219,7 +16078,7 @@
         <v>381</v>
       </c>
       <c r="G247">
-        <v>264.25423999999998</v>
+        <v>264.25424</v>
       </c>
       <c r="H247" t="s">
         <v>383</v>
@@ -16255,7 +16114,7 @@
         <v>806</v>
       </c>
     </row>
-    <row r="248" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="248" spans="1:18">
       <c r="A248" t="s">
         <v>181</v>
       </c>
@@ -16311,7 +16170,7 @@
         <v>806</v>
       </c>
     </row>
-    <row r="249" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="249" spans="1:18">
       <c r="A249" t="s">
         <v>204</v>
       </c>
@@ -16331,7 +16190,7 @@
         <v>381</v>
       </c>
       <c r="G249">
-        <v>151.35301999999999</v>
+        <v>151.35302</v>
       </c>
       <c r="H249" t="s">
         <v>383</v>
@@ -16367,7 +16226,7 @@
         <v>806</v>
       </c>
     </row>
-    <row r="250" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="250" spans="1:18">
       <c r="A250" t="s">
         <v>205</v>
       </c>
@@ -16387,7 +16246,7 @@
         <v>381</v>
       </c>
       <c r="G250">
-        <v>250.72281000000001</v>
+        <v>250.72281</v>
       </c>
       <c r="H250" t="s">
         <v>383</v>
@@ -16423,7 +16282,7 @@
         <v>806</v>
       </c>
     </row>
-    <row r="251" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="251" spans="1:18">
       <c r="A251" t="s">
         <v>206</v>
       </c>
@@ -16479,7 +16338,7 @@
         <v>806</v>
       </c>
     </row>
-    <row r="252" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="252" spans="1:18">
       <c r="A252" t="s">
         <v>207</v>
       </c>
@@ -16499,7 +16358,7 @@
         <v>381</v>
       </c>
       <c r="G252">
-        <v>237.97506000000001</v>
+        <v>237.97506</v>
       </c>
       <c r="H252" t="s">
         <v>383</v>
@@ -16535,7 +16394,7 @@
         <v>806</v>
       </c>
     </row>
-    <row r="253" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="253" spans="1:18">
       <c r="A253" t="s">
         <v>208</v>
       </c>
@@ -16555,7 +16414,7 @@
         <v>381</v>
       </c>
       <c r="G253">
-        <v>45.635460000000002</v>
+        <v>45.63546</v>
       </c>
       <c r="H253" t="s">
         <v>383</v>
@@ -16591,7 +16450,7 @@
         <v>806</v>
       </c>
     </row>
-    <row r="254" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="254" spans="1:18">
       <c r="B254" t="s">
         <v>377</v>
       </c>
@@ -16638,7 +16497,7 @@
         <v>806</v>
       </c>
     </row>
-    <row r="255" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="255" spans="1:18">
       <c r="A255" t="s">
         <v>209</v>
       </c>
@@ -16658,7 +16517,7 @@
         <v>381</v>
       </c>
       <c r="G255">
-        <v>210.41587000000001</v>
+        <v>210.41587</v>
       </c>
       <c r="H255" t="s">
         <v>383</v>
@@ -16694,7 +16553,7 @@
         <v>806</v>
       </c>
     </row>
-    <row r="256" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="256" spans="1:18">
       <c r="A256" t="s">
         <v>210</v>
       </c>
@@ -16714,7 +16573,7 @@
         <v>381</v>
       </c>
       <c r="G256">
-        <v>297.42975000000001</v>
+        <v>297.42975</v>
       </c>
       <c r="H256" t="s">
         <v>383</v>
@@ -16750,7 +16609,7 @@
         <v>806</v>
       </c>
     </row>
-    <row r="257" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="257" spans="1:18">
       <c r="A257" t="s">
         <v>211</v>
       </c>
@@ -16770,7 +16629,7 @@
         <v>381</v>
       </c>
       <c r="G257">
-        <v>240.61341999999999</v>
+        <v>240.61342</v>
       </c>
       <c r="H257" t="s">
         <v>383</v>
@@ -16806,7 +16665,7 @@
         <v>806</v>
       </c>
     </row>
-    <row r="258" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="258" spans="1:18">
       <c r="A258" t="s">
         <v>212</v>
       </c>
@@ -16862,7 +16721,7 @@
         <v>806</v>
       </c>
     </row>
-    <row r="259" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="259" spans="1:18">
       <c r="A259" t="s">
         <v>213</v>
       </c>
@@ -16882,7 +16741,7 @@
         <v>381</v>
       </c>
       <c r="G259">
-        <v>333.81832000000003</v>
+        <v>333.81832</v>
       </c>
       <c r="H259" t="s">
         <v>383</v>
@@ -16918,7 +16777,7 @@
         <v>806</v>
       </c>
     </row>
-    <row r="260" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="260" spans="1:18">
       <c r="A260" t="s">
         <v>214</v>
       </c>
@@ -16938,7 +16797,7 @@
         <v>381</v>
       </c>
       <c r="G260">
-        <v>231.26159000000001</v>
+        <v>231.26159</v>
       </c>
       <c r="H260" t="s">
         <v>383</v>
@@ -16974,7 +16833,7 @@
         <v>806</v>
       </c>
     </row>
-    <row r="261" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="261" spans="1:18">
       <c r="A261" t="s">
         <v>215</v>
       </c>
@@ -16994,7 +16853,7 @@
         <v>381</v>
       </c>
       <c r="G261">
-        <v>250.51383000000001</v>
+        <v>250.51383</v>
       </c>
       <c r="H261" t="s">
         <v>383</v>
@@ -17030,7 +16889,7 @@
         <v>806</v>
       </c>
     </row>
-    <row r="262" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="262" spans="1:18">
       <c r="A262" t="s">
         <v>216</v>
       </c>
@@ -17050,7 +16909,7 @@
         <v>381</v>
       </c>
       <c r="G262">
-        <v>305.29261000000002</v>
+        <v>305.29261</v>
       </c>
       <c r="H262" t="s">
         <v>383</v>
@@ -17086,7 +16945,7 @@
         <v>806</v>
       </c>
     </row>
-    <row r="263" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="263" spans="1:18">
       <c r="A263" t="s">
         <v>217</v>
       </c>
@@ -17106,7 +16965,7 @@
         <v>381</v>
       </c>
       <c r="G263">
-        <v>274.78158999999999</v>
+        <v>274.78159</v>
       </c>
       <c r="H263" t="s">
         <v>383</v>
@@ -17142,7 +17001,7 @@
         <v>806</v>
       </c>
     </row>
-    <row r="264" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="264" spans="1:18">
       <c r="B264" t="s">
         <v>377</v>
       </c>
@@ -17189,7 +17048,7 @@
         <v>806</v>
       </c>
     </row>
-    <row r="265" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="265" spans="1:18">
       <c r="A265" t="s">
         <v>218</v>
       </c>
@@ -17209,7 +17068,7 @@
         <v>381</v>
       </c>
       <c r="G265">
-        <v>132.85831999999999</v>
+        <v>132.85832</v>
       </c>
       <c r="H265" t="s">
         <v>383</v>
@@ -17245,7 +17104,7 @@
         <v>806</v>
       </c>
     </row>
-    <row r="266" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="266" spans="1:18">
       <c r="A266" t="s">
         <v>219</v>
       </c>
@@ -17265,7 +17124,7 @@
         <v>381</v>
       </c>
       <c r="G266">
-        <v>311.27465000000001</v>
+        <v>311.27465</v>
       </c>
       <c r="H266" t="s">
         <v>383</v>
@@ -17301,7 +17160,7 @@
         <v>806</v>
       </c>
     </row>
-    <row r="267" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="267" spans="1:18">
       <c r="A267" t="s">
         <v>220</v>
       </c>
@@ -17321,7 +17180,7 @@
         <v>381</v>
       </c>
       <c r="G267">
-        <v>313.07709999999997</v>
+        <v>313.0771</v>
       </c>
       <c r="H267" t="s">
         <v>383</v>
@@ -17357,7 +17216,7 @@
         <v>806</v>
       </c>
     </row>
-    <row r="268" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="268" spans="1:18">
       <c r="B268" t="s">
         <v>377</v>
       </c>
@@ -17404,7 +17263,7 @@
         <v>806</v>
       </c>
     </row>
-    <row r="269" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="269" spans="1:18">
       <c r="A269" t="s">
         <v>221</v>
       </c>
@@ -17424,7 +17283,7 @@
         <v>381</v>
       </c>
       <c r="G269">
-        <v>238.54974999999999</v>
+        <v>238.54975</v>
       </c>
       <c r="H269" t="s">
         <v>383</v>
@@ -17460,7 +17319,7 @@
         <v>806</v>
       </c>
     </row>
-    <row r="270" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="270" spans="1:18">
       <c r="A270" t="s">
         <v>155</v>
       </c>
@@ -17480,7 +17339,7 @@
         <v>381</v>
       </c>
       <c r="G270">
-        <v>122.04362999999999</v>
+        <v>122.04363</v>
       </c>
       <c r="H270" t="s">
         <v>383</v>
@@ -17516,7 +17375,7 @@
         <v>806</v>
       </c>
     </row>
-    <row r="271" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="271" spans="1:18">
       <c r="A271" t="s">
         <v>80</v>
       </c>
@@ -17572,7 +17431,7 @@
         <v>806</v>
       </c>
     </row>
-    <row r="272" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="272" spans="1:18">
       <c r="A272" t="s">
         <v>222</v>
       </c>
@@ -17592,7 +17451,7 @@
         <v>381</v>
       </c>
       <c r="G272">
-        <v>383.73831999999999</v>
+        <v>383.73832</v>
       </c>
       <c r="H272" t="s">
         <v>383</v>
@@ -17628,7 +17487,7 @@
         <v>806</v>
       </c>
     </row>
-    <row r="273" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="273" spans="1:18">
       <c r="A273" t="s">
         <v>223</v>
       </c>
@@ -17648,7 +17507,7 @@
         <v>381</v>
       </c>
       <c r="G273">
-        <v>192.70484999999999</v>
+        <v>192.70485</v>
       </c>
       <c r="H273" t="s">
         <v>383</v>
@@ -17684,7 +17543,7 @@
         <v>806</v>
       </c>
     </row>
-    <row r="274" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="274" spans="1:18">
       <c r="A274" t="s">
         <v>224</v>
       </c>
@@ -17704,7 +17563,7 @@
         <v>381</v>
       </c>
       <c r="G274">
-        <v>187.19301999999999</v>
+        <v>187.19302</v>
       </c>
       <c r="H274" t="s">
         <v>383</v>
@@ -17740,7 +17599,7 @@
         <v>806</v>
       </c>
     </row>
-    <row r="275" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="275" spans="1:18">
       <c r="A275" t="s">
         <v>225</v>
       </c>
@@ -17796,7 +17655,7 @@
         <v>806</v>
       </c>
     </row>
-    <row r="276" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="276" spans="1:18">
       <c r="B276" t="s">
         <v>377</v>
       </c>
@@ -17843,7 +17702,7 @@
         <v>806</v>
       </c>
     </row>
-    <row r="277" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="277" spans="1:18">
       <c r="A277" t="s">
         <v>226</v>
       </c>
@@ -17863,7 +17722,7 @@
         <v>381</v>
       </c>
       <c r="G277">
-        <v>281.28608000000003</v>
+        <v>281.28608</v>
       </c>
       <c r="H277" t="s">
         <v>383</v>
@@ -17899,7 +17758,7 @@
         <v>806</v>
       </c>
     </row>
-    <row r="278" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="278" spans="1:18">
       <c r="B278" t="s">
         <v>377</v>
       </c>
@@ -17946,7 +17805,7 @@
         <v>806</v>
       </c>
     </row>
-    <row r="279" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="279" spans="1:18">
       <c r="A279" t="s">
         <v>227</v>
       </c>
@@ -18002,7 +17861,7 @@
         <v>806</v>
       </c>
     </row>
-    <row r="280" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="280" spans="1:18">
       <c r="A280" t="s">
         <v>228</v>
       </c>
@@ -18022,7 +17881,7 @@
         <v>381</v>
       </c>
       <c r="G280">
-        <v>218.38321999999999</v>
+        <v>218.38322</v>
       </c>
       <c r="H280" t="s">
         <v>383</v>
@@ -18058,7 +17917,7 @@
         <v>806</v>
       </c>
     </row>
-    <row r="281" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="281" spans="1:18">
       <c r="A281" t="s">
         <v>203</v>
       </c>
@@ -18078,7 +17937,7 @@
         <v>381</v>
       </c>
       <c r="G281">
-        <v>240.43056999999999</v>
+        <v>240.43057</v>
       </c>
       <c r="H281" t="s">
         <v>383</v>
@@ -18114,7 +17973,7 @@
         <v>806</v>
       </c>
     </row>
-    <row r="282" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="282" spans="1:18">
       <c r="A282" t="s">
         <v>229</v>
       </c>
@@ -18134,7 +17993,7 @@
         <v>381</v>
       </c>
       <c r="G282">
-        <v>269.76607999999999</v>
+        <v>269.76608</v>
       </c>
       <c r="H282" t="s">
         <v>383</v>
@@ -18170,7 +18029,7 @@
         <v>806</v>
       </c>
     </row>
-    <row r="283" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="283" spans="1:18">
       <c r="A283" t="s">
         <v>230</v>
       </c>
@@ -18226,7 +18085,7 @@
         <v>806</v>
       </c>
     </row>
-    <row r="284" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="284" spans="1:18">
       <c r="A284" t="s">
         <v>231</v>
       </c>
@@ -18246,7 +18105,7 @@
         <v>381</v>
       </c>
       <c r="G284">
-        <v>195.18648999999999</v>
+        <v>195.18649</v>
       </c>
       <c r="H284" t="s">
         <v>383</v>
@@ -18282,7 +18141,7 @@
         <v>806</v>
       </c>
     </row>
-    <row r="285" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="285" spans="1:18">
       <c r="A285" t="s">
         <v>232</v>
       </c>
@@ -18302,7 +18161,7 @@
         <v>381</v>
       </c>
       <c r="G285">
-        <v>120.42404000000001</v>
+        <v>120.42404</v>
       </c>
       <c r="H285" t="s">
         <v>383</v>
@@ -18338,7 +18197,7 @@
         <v>806</v>
       </c>
     </row>
-    <row r="286" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="286" spans="1:18">
       <c r="A286" t="s">
         <v>233</v>
       </c>
@@ -18394,7 +18253,7 @@
         <v>806</v>
       </c>
     </row>
-    <row r="287" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="287" spans="1:18">
       <c r="A287" t="s">
         <v>47</v>
       </c>
@@ -18414,7 +18273,7 @@
         <v>381</v>
       </c>
       <c r="G287">
-        <v>233.89994999999999</v>
+        <v>233.89995</v>
       </c>
       <c r="H287" t="s">
         <v>383</v>
@@ -18450,7 +18309,7 @@
         <v>806</v>
       </c>
     </row>
-    <row r="288" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="288" spans="1:18">
       <c r="A288" t="s">
         <v>234</v>
       </c>
@@ -18470,7 +18329,7 @@
         <v>381</v>
       </c>
       <c r="G288">
-        <v>224.75710000000001</v>
+        <v>224.7571</v>
       </c>
       <c r="H288" t="s">
         <v>383</v>
@@ -18506,7 +18365,7 @@
         <v>806</v>
       </c>
     </row>
-    <row r="289" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="289" spans="1:18">
       <c r="A289" t="s">
         <v>235</v>
       </c>
@@ -18526,7 +18385,7 @@
         <v>381</v>
       </c>
       <c r="G289">
-        <v>263.23545999999999</v>
+        <v>263.23546</v>
       </c>
       <c r="H289" t="s">
         <v>383</v>
@@ -18562,7 +18421,7 @@
         <v>806</v>
       </c>
     </row>
-    <row r="290" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="290" spans="1:18">
       <c r="A290" t="s">
         <v>236</v>
       </c>
@@ -18582,7 +18441,7 @@
         <v>381</v>
       </c>
       <c r="G290">
-        <v>229.48526000000001</v>
+        <v>229.48526</v>
       </c>
       <c r="H290" t="s">
         <v>383</v>
@@ -18618,7 +18477,7 @@
         <v>806</v>
       </c>
     </row>
-    <row r="291" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="291" spans="1:18">
       <c r="A291" t="s">
         <v>237</v>
       </c>
@@ -18638,7 +18497,7 @@
         <v>381</v>
       </c>
       <c r="G291">
-        <v>216.76363000000001</v>
+        <v>216.76363</v>
       </c>
       <c r="H291" t="s">
         <v>383</v>
@@ -18674,7 +18533,7 @@
         <v>806</v>
       </c>
     </row>
-    <row r="292" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="292" spans="1:18">
       <c r="A292" t="s">
         <v>238</v>
       </c>
@@ -18694,7 +18553,7 @@
         <v>381</v>
       </c>
       <c r="G292">
-        <v>288.23464999999999</v>
+        <v>288.23465</v>
       </c>
       <c r="H292" t="s">
         <v>383</v>
@@ -18730,7 +18589,7 @@
         <v>806</v>
       </c>
     </row>
-    <row r="293" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="293" spans="1:18">
       <c r="A293" t="s">
         <v>58</v>
       </c>
@@ -18786,7 +18645,7 @@
         <v>806</v>
       </c>
     </row>
-    <row r="294" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="294" spans="1:18">
       <c r="A294" t="s">
         <v>151</v>
       </c>
@@ -18806,7 +18665,7 @@
         <v>381</v>
       </c>
       <c r="G294">
-        <v>240.40443999999999</v>
+        <v>240.40444</v>
       </c>
       <c r="H294" t="s">
         <v>383</v>
@@ -18842,7 +18701,7 @@
         <v>806</v>
       </c>
     </row>
-    <row r="295" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="295" spans="1:18">
       <c r="A295" t="s">
         <v>239</v>
       </c>
@@ -18862,7 +18721,7 @@
         <v>381</v>
       </c>
       <c r="G295">
-        <v>235.72853000000001</v>
+        <v>235.72853</v>
       </c>
       <c r="H295" t="s">
         <v>383</v>
@@ -18898,7 +18757,7 @@
         <v>806</v>
       </c>
     </row>
-    <row r="296" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="296" spans="1:18">
       <c r="A296" t="s">
         <v>149</v>
       </c>
@@ -18918,7 +18777,7 @@
         <v>381</v>
       </c>
       <c r="G296">
-        <v>288.73097999999999</v>
+        <v>288.73098</v>
       </c>
       <c r="H296" t="s">
         <v>383</v>
@@ -18954,7 +18813,7 @@
         <v>806</v>
       </c>
     </row>
-    <row r="297" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="297" spans="1:18">
       <c r="B297" t="s">
         <v>377</v>
       </c>
@@ -19001,7 +18860,7 @@
         <v>806</v>
       </c>
     </row>
-    <row r="298" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="298" spans="1:18">
       <c r="A298" t="s">
         <v>240</v>
       </c>
@@ -19021,7 +18880,7 @@
         <v>381</v>
       </c>
       <c r="G298">
-        <v>241.03138000000001</v>
+        <v>241.03138</v>
       </c>
       <c r="H298" t="s">
         <v>383</v>
@@ -19057,7 +18916,7 @@
         <v>806</v>
       </c>
     </row>
-    <row r="299" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="299" spans="1:18">
       <c r="A299" t="s">
         <v>241</v>
       </c>
@@ -19077,7 +18936,7 @@
         <v>381</v>
       </c>
       <c r="G299">
-        <v>352.88771000000003</v>
+        <v>352.88771</v>
       </c>
       <c r="H299" t="s">
         <v>383</v>
@@ -19113,7 +18972,7 @@
         <v>806</v>
       </c>
     </row>
-    <row r="300" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="300" spans="1:18">
       <c r="A300" t="s">
         <v>242</v>
       </c>
@@ -19133,7 +18992,7 @@
         <v>381</v>
       </c>
       <c r="G300">
-        <v>349.77913999999998</v>
+        <v>349.77914</v>
       </c>
       <c r="H300" t="s">
         <v>383</v>
@@ -19169,7 +19028,7 @@
         <v>806</v>
       </c>
     </row>
-    <row r="301" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="301" spans="1:18">
       <c r="B301" t="s">
         <v>377</v>
       </c>
@@ -19216,7 +19075,7 @@
         <v>806</v>
       </c>
     </row>
-    <row r="302" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="302" spans="1:18">
       <c r="A302" t="s">
         <v>243</v>
       </c>
@@ -19236,7 +19095,7 @@
         <v>381</v>
       </c>
       <c r="G302">
-        <v>241.34485000000001</v>
+        <v>241.34485</v>
       </c>
       <c r="H302" t="s">
         <v>383</v>
@@ -19272,7 +19131,7 @@
         <v>806</v>
       </c>
     </row>
-    <row r="303" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="303" spans="1:18">
       <c r="A303" t="s">
         <v>244</v>
       </c>
@@ -19292,7 +19151,7 @@
         <v>381</v>
       </c>
       <c r="G303">
-        <v>189.59628000000001</v>
+        <v>189.59628</v>
       </c>
       <c r="H303" t="s">
         <v>383</v>
@@ -19328,7 +19187,7 @@
         <v>806</v>
       </c>
     </row>
-    <row r="304" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="304" spans="1:18">
       <c r="A304" t="s">
         <v>245</v>
       </c>
@@ -19348,7 +19207,7 @@
         <v>381</v>
       </c>
       <c r="G304">
-        <v>229.25015999999999</v>
+        <v>229.25016</v>
       </c>
       <c r="H304" t="s">
         <v>383</v>
@@ -19384,7 +19243,7 @@
         <v>806</v>
       </c>
     </row>
-    <row r="305" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="305" spans="1:18">
       <c r="A305" t="s">
         <v>246</v>
       </c>
@@ -19404,7 +19263,7 @@
         <v>381</v>
       </c>
       <c r="G305">
-        <v>401.52771000000001</v>
+        <v>401.52771</v>
       </c>
       <c r="H305" t="s">
         <v>383</v>
@@ -19440,7 +19299,7 @@
         <v>806</v>
       </c>
     </row>
-    <row r="306" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="306" spans="1:18">
       <c r="A306" t="s">
         <v>247</v>
       </c>
@@ -19496,7 +19355,7 @@
         <v>806</v>
       </c>
     </row>
-    <row r="307" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="307" spans="1:18">
       <c r="B307" t="s">
         <v>377</v>
       </c>
@@ -19543,7 +19402,7 @@
         <v>806</v>
       </c>
     </row>
-    <row r="308" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="308" spans="1:18">
       <c r="A308" t="s">
         <v>248</v>
       </c>
@@ -19563,7 +19422,7 @@
         <v>381</v>
       </c>
       <c r="G308">
-        <v>189.98812000000001</v>
+        <v>189.98812</v>
       </c>
       <c r="H308" t="s">
         <v>383</v>
@@ -19599,7 +19458,7 @@
         <v>806</v>
       </c>
     </row>
-    <row r="309" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="309" spans="1:18">
       <c r="A309" t="s">
         <v>249</v>
       </c>
@@ -19655,7 +19514,7 @@
         <v>806</v>
       </c>
     </row>
-    <row r="310" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="310" spans="1:18">
       <c r="A310" t="s">
         <v>250</v>
       </c>
@@ -19675,7 +19534,7 @@
         <v>381</v>
       </c>
       <c r="G310">
-        <v>303.75137999999998</v>
+        <v>303.75138</v>
       </c>
       <c r="H310" t="s">
         <v>383</v>
@@ -19711,7 +19570,7 @@
         <v>806</v>
       </c>
     </row>
-    <row r="311" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="311" spans="1:18">
       <c r="A311" t="s">
         <v>251</v>
       </c>
@@ -19731,7 +19590,7 @@
         <v>381</v>
       </c>
       <c r="G311">
-        <v>261.48525999999998</v>
+        <v>261.48526</v>
       </c>
       <c r="H311" t="s">
         <v>383</v>
@@ -19767,7 +19626,7 @@
         <v>806</v>
       </c>
     </row>
-    <row r="312" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="312" spans="1:18">
       <c r="B312" t="s">
         <v>377</v>
       </c>
@@ -19814,7 +19673,7 @@
         <v>806</v>
       </c>
     </row>
-    <row r="313" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="313" spans="1:18">
       <c r="B313" t="s">
         <v>377</v>
       </c>
@@ -19861,7 +19720,7 @@
         <v>806</v>
       </c>
     </row>
-    <row r="314" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="314" spans="1:18">
       <c r="A314" t="s">
         <v>252</v>
       </c>
@@ -19917,7 +19776,7 @@
         <v>806</v>
       </c>
     </row>
-    <row r="315" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="315" spans="1:18">
       <c r="A315" t="s">
         <v>253</v>
       </c>
@@ -19973,7 +19832,7 @@
         <v>806</v>
       </c>
     </row>
-    <row r="316" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="316" spans="1:18">
       <c r="A316" t="s">
         <v>254</v>
       </c>
@@ -19993,7 +19852,7 @@
         <v>381</v>
       </c>
       <c r="G316">
-        <v>214.54321999999999</v>
+        <v>214.54322</v>
       </c>
       <c r="H316" t="s">
         <v>383</v>
@@ -20029,7 +19888,7 @@
         <v>806</v>
       </c>
     </row>
-    <row r="317" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="317" spans="1:18">
       <c r="A317" t="s">
         <v>255</v>
       </c>
@@ -20049,7 +19908,7 @@
         <v>381</v>
       </c>
       <c r="G317">
-        <v>186.69668999999999</v>
+        <v>186.69669</v>
       </c>
       <c r="H317" t="s">
         <v>383</v>
@@ -20085,7 +19944,7 @@
         <v>806</v>
       </c>
     </row>
-    <row r="318" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="318" spans="1:18">
       <c r="A318" t="s">
         <v>256</v>
       </c>
@@ -20105,7 +19964,7 @@
         <v>381</v>
       </c>
       <c r="G318">
-        <v>257.43628000000001</v>
+        <v>257.43628</v>
       </c>
       <c r="H318" t="s">
         <v>383</v>
@@ -20141,7 +20000,7 @@
         <v>806</v>
       </c>
     </row>
-    <row r="319" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="319" spans="1:18">
       <c r="A319" t="s">
         <v>257</v>
       </c>
@@ -20161,7 +20020,7 @@
         <v>381</v>
       </c>
       <c r="G319">
-        <v>395.72852999999998</v>
+        <v>395.72853</v>
       </c>
       <c r="H319" t="s">
         <v>383</v>
@@ -20197,7 +20056,7 @@
         <v>806</v>
       </c>
     </row>
-    <row r="320" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="320" spans="1:18">
       <c r="A320" t="s">
         <v>154</v>
       </c>
@@ -20217,7 +20076,7 @@
         <v>381</v>
       </c>
       <c r="G320">
-        <v>204.61669000000001</v>
+        <v>204.61669</v>
       </c>
       <c r="H320" t="s">
         <v>383</v>
@@ -20253,7 +20112,7 @@
         <v>806</v>
       </c>
     </row>
-    <row r="321" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="321" spans="1:18">
       <c r="A321" t="s">
         <v>258</v>
       </c>
@@ -20273,7 +20132,7 @@
         <v>381</v>
       </c>
       <c r="G321">
-        <v>360.25423999999998</v>
+        <v>360.25424</v>
       </c>
       <c r="H321" t="s">
         <v>383</v>
@@ -20309,7 +20168,7 @@
         <v>806</v>
       </c>
     </row>
-    <row r="322" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="322" spans="1:18">
       <c r="A322" t="s">
         <v>259</v>
       </c>
@@ -20329,7 +20188,7 @@
         <v>381</v>
       </c>
       <c r="G322">
-        <v>282.04363000000001</v>
+        <v>282.04363</v>
       </c>
       <c r="H322" t="s">
         <v>383</v>
@@ -20365,7 +20224,7 @@
         <v>806</v>
       </c>
     </row>
-    <row r="323" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="323" spans="1:18">
       <c r="A323" t="s">
         <v>260</v>
       </c>
@@ -20421,7 +20280,7 @@
         <v>806</v>
       </c>
     </row>
-    <row r="324" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="324" spans="1:18">
       <c r="A324" t="s">
         <v>223</v>
       </c>
@@ -20441,7 +20300,7 @@
         <v>381</v>
       </c>
       <c r="G324">
-        <v>192.70484999999999</v>
+        <v>192.70485</v>
       </c>
       <c r="H324" t="s">
         <v>383</v>
@@ -20477,7 +20336,7 @@
         <v>806</v>
       </c>
     </row>
-    <row r="325" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="325" spans="1:18">
       <c r="A325" t="s">
         <v>261</v>
       </c>
@@ -20497,7 +20356,7 @@
         <v>381</v>
       </c>
       <c r="G325">
-        <v>283.08852999999999</v>
+        <v>283.08853</v>
       </c>
       <c r="H325" t="s">
         <v>383</v>
@@ -20533,7 +20392,7 @@
         <v>806</v>
       </c>
     </row>
-    <row r="326" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="326" spans="1:18">
       <c r="A326" t="s">
         <v>262</v>
       </c>
@@ -20553,7 +20412,7 @@
         <v>381</v>
       </c>
       <c r="G326">
-        <v>241.52771000000001</v>
+        <v>241.52771</v>
       </c>
       <c r="H326" t="s">
         <v>383</v>
@@ -20589,7 +20448,7 @@
         <v>806</v>
       </c>
     </row>
-    <row r="327" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="327" spans="1:18">
       <c r="A327" t="s">
         <v>263</v>
       </c>
@@ -20609,7 +20468,7 @@
         <v>381</v>
       </c>
       <c r="G327">
-        <v>377.59955000000002</v>
+        <v>377.59955</v>
       </c>
       <c r="H327" t="s">
         <v>383</v>
@@ -20645,7 +20504,7 @@
         <v>806</v>
       </c>
     </row>
-    <row r="328" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="328" spans="1:18">
       <c r="A328" t="s">
         <v>82</v>
       </c>
@@ -20665,7 +20524,7 @@
         <v>381</v>
       </c>
       <c r="G328">
-        <v>268.48608000000002</v>
+        <v>268.48608</v>
       </c>
       <c r="H328" t="s">
         <v>383</v>
@@ -20701,7 +20560,7 @@
         <v>806</v>
       </c>
     </row>
-    <row r="329" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="329" spans="1:18">
       <c r="A329" t="s">
         <v>264</v>
       </c>
@@ -20721,7 +20580,7 @@
         <v>381</v>
       </c>
       <c r="G329">
-        <v>205.84443999999999</v>
+        <v>205.84444</v>
       </c>
       <c r="H329" t="s">
         <v>383</v>
@@ -20757,7 +20616,7 @@
         <v>806</v>
       </c>
     </row>
-    <row r="330" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="330" spans="1:18">
       <c r="A330" t="s">
         <v>265</v>
       </c>
@@ -20813,7 +20672,7 @@
         <v>806</v>
       </c>
     </row>
-    <row r="331" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="331" spans="1:18">
       <c r="A331" t="s">
         <v>109</v>
       </c>
@@ -20869,7 +20728,7 @@
         <v>806</v>
       </c>
     </row>
-    <row r="332" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="332" spans="1:18">
       <c r="A332" t="s">
         <v>266</v>
       </c>
@@ -20925,7 +20784,7 @@
         <v>806</v>
       </c>
     </row>
-    <row r="333" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="333" spans="1:18">
       <c r="A333" t="s">
         <v>267</v>
       </c>
@@ -20945,7 +20804,7 @@
         <v>381</v>
       </c>
       <c r="G333">
-        <v>375.48363000000001</v>
+        <v>375.48363</v>
       </c>
       <c r="H333" t="s">
         <v>383</v>
@@ -20981,7 +20840,7 @@
         <v>806</v>
       </c>
     </row>
-    <row r="334" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="334" spans="1:18">
       <c r="A334" t="s">
         <v>195</v>
       </c>
@@ -21037,7 +20896,7 @@
         <v>806</v>
       </c>
     </row>
-    <row r="335" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="335" spans="1:18">
       <c r="B335" t="s">
         <v>377</v>
       </c>
@@ -21084,7 +20943,7 @@
         <v>806</v>
       </c>
     </row>
-    <row r="336" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="336" spans="1:18">
       <c r="A336" t="s">
         <v>268</v>
       </c>
@@ -21140,7 +20999,7 @@
         <v>806</v>
       </c>
     </row>
-    <row r="337" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="337" spans="1:18">
       <c r="A337" t="s">
         <v>269</v>
       </c>
@@ -21160,7 +21019,7 @@
         <v>381</v>
       </c>
       <c r="G337">
-        <v>256.31301999999999</v>
+        <v>256.31302</v>
       </c>
       <c r="H337" t="s">
         <v>383</v>
@@ -21196,7 +21055,7 @@
         <v>806</v>
       </c>
     </row>
-    <row r="338" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="338" spans="1:18">
       <c r="A338" t="s">
         <v>227</v>
       </c>
@@ -21216,7 +21075,7 @@
         <v>381</v>
       </c>
       <c r="G338">
-        <v>281.70404000000002</v>
+        <v>281.70404</v>
       </c>
       <c r="H338" t="s">
         <v>383</v>
@@ -21252,7 +21111,7 @@
         <v>806</v>
       </c>
     </row>
-    <row r="339" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="339" spans="1:18">
       <c r="A339" t="s">
         <v>223</v>
       </c>
@@ -21308,7 +21167,7 @@
         <v>806</v>
       </c>
     </row>
-    <row r="340" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="340" spans="1:18">
       <c r="A340" t="s">
         <v>270</v>
       </c>
@@ -21364,7 +21223,7 @@
         <v>806</v>
       </c>
     </row>
-    <row r="341" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="341" spans="1:18">
       <c r="A341" t="s">
         <v>165</v>
       </c>
@@ -21384,7 +21243,7 @@
         <v>381</v>
       </c>
       <c r="G341">
-        <v>206.65423999999999</v>
+        <v>206.65424</v>
       </c>
       <c r="H341" t="s">
         <v>383</v>
@@ -21420,7 +21279,7 @@
         <v>806</v>
       </c>
     </row>
-    <row r="342" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="342" spans="1:18">
       <c r="A342" t="s">
         <v>271</v>
       </c>
@@ -21440,7 +21299,7 @@
         <v>381</v>
       </c>
       <c r="G342">
-        <v>276.94974999999999</v>
+        <v>276.94975</v>
       </c>
       <c r="H342" t="s">
         <v>383</v>
@@ -21476,7 +21335,7 @@
         <v>806</v>
       </c>
     </row>
-    <row r="343" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="343" spans="1:18">
       <c r="A343" t="s">
         <v>193</v>
       </c>
@@ -21496,7 +21355,7 @@
         <v>381</v>
       </c>
       <c r="G343">
-        <v>62.327710000000003</v>
+        <v>62.32771</v>
       </c>
       <c r="H343" t="s">
         <v>383</v>
@@ -21532,7 +21391,7 @@
         <v>806</v>
       </c>
     </row>
-    <row r="344" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="344" spans="1:18">
       <c r="A344" t="s">
         <v>272</v>
       </c>
@@ -21588,7 +21447,7 @@
         <v>806</v>
       </c>
     </row>
-    <row r="345" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="345" spans="1:18">
       <c r="A345" t="s">
         <v>273</v>
       </c>
@@ -21608,7 +21467,7 @@
         <v>381</v>
       </c>
       <c r="G345">
-        <v>138.21342000000001</v>
+        <v>138.21342</v>
       </c>
       <c r="H345" t="s">
         <v>383</v>
@@ -21644,7 +21503,7 @@
         <v>806</v>
       </c>
     </row>
-    <row r="346" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="346" spans="1:18">
       <c r="A346" t="s">
         <v>274</v>
       </c>
@@ -21664,7 +21523,7 @@
         <v>381</v>
       </c>
       <c r="G346">
-        <v>320.44362999999998</v>
+        <v>320.44363</v>
       </c>
       <c r="H346" t="s">
         <v>383</v>
@@ -21700,7 +21559,7 @@
         <v>806</v>
       </c>
     </row>
-    <row r="347" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="347" spans="1:18">
       <c r="A347" t="s">
         <v>245</v>
       </c>
@@ -21720,7 +21579,7 @@
         <v>381</v>
       </c>
       <c r="G347">
-        <v>240.24771000000001</v>
+        <v>240.24771</v>
       </c>
       <c r="H347" t="s">
         <v>383</v>
@@ -21756,7 +21615,7 @@
         <v>806</v>
       </c>
     </row>
-    <row r="348" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="348" spans="1:18">
       <c r="A348" t="s">
         <v>275</v>
       </c>
@@ -21776,7 +21635,7 @@
         <v>381</v>
       </c>
       <c r="G348">
-        <v>372.40118000000001</v>
+        <v>372.40118</v>
       </c>
       <c r="H348" t="s">
         <v>383</v>
@@ -21812,7 +21671,7 @@
         <v>806</v>
       </c>
     </row>
-    <row r="349" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="349" spans="1:18">
       <c r="A349" t="s">
         <v>276</v>
       </c>
@@ -21832,7 +21691,7 @@
         <v>381</v>
       </c>
       <c r="G349">
-        <v>371.66975000000002</v>
+        <v>371.66975</v>
       </c>
       <c r="H349" t="s">
         <v>383</v>
@@ -21868,7 +21727,7 @@
         <v>806</v>
       </c>
     </row>
-    <row r="350" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="350" spans="1:18">
       <c r="B350" t="s">
         <v>377</v>
       </c>
@@ -21915,7 +21774,7 @@
         <v>806</v>
       </c>
     </row>
-    <row r="351" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="351" spans="1:18">
       <c r="A351" t="s">
         <v>277</v>
       </c>
@@ -21935,7 +21794,7 @@
         <v>381</v>
       </c>
       <c r="G351">
-        <v>249.23383000000001</v>
+        <v>249.23383</v>
       </c>
       <c r="H351" t="s">
         <v>383</v>
@@ -21971,7 +21830,7 @@
         <v>806</v>
       </c>
     </row>
-    <row r="352" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="352" spans="1:18">
       <c r="A352" t="s">
         <v>276</v>
       </c>
@@ -21991,7 +21850,7 @@
         <v>381</v>
       </c>
       <c r="G352">
-        <v>371.66975000000002</v>
+        <v>371.66975</v>
       </c>
       <c r="H352" t="s">
         <v>383</v>
@@ -22027,7 +21886,7 @@
         <v>806</v>
       </c>
     </row>
-    <row r="353" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="353" spans="1:18">
       <c r="A353" t="s">
         <v>278</v>
       </c>
@@ -22047,7 +21906,7 @@
         <v>381</v>
       </c>
       <c r="G353">
-        <v>136.04526000000001</v>
+        <v>136.04526</v>
       </c>
       <c r="H353" t="s">
         <v>383</v>
@@ -22083,7 +21942,7 @@
         <v>806</v>
       </c>
     </row>
-    <row r="354" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="354" spans="1:18">
       <c r="A354" t="s">
         <v>279</v>
       </c>
@@ -22139,7 +21998,7 @@
         <v>806</v>
       </c>
     </row>
-    <row r="355" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="355" spans="1:18">
       <c r="A355" t="s">
         <v>280</v>
       </c>
@@ -22159,7 +22018,7 @@
         <v>381</v>
       </c>
       <c r="G355">
-        <v>178.20688999999999</v>
+        <v>178.20689</v>
       </c>
       <c r="H355" t="s">
         <v>383</v>
@@ -22195,7 +22054,7 @@
         <v>806</v>
       </c>
     </row>
-    <row r="356" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="356" spans="1:18">
       <c r="A356" t="s">
         <v>281</v>
       </c>
@@ -22215,7 +22074,7 @@
         <v>381</v>
       </c>
       <c r="G356">
-        <v>332.17261000000002</v>
+        <v>332.17261</v>
       </c>
       <c r="H356" t="s">
         <v>383</v>
@@ -22251,7 +22110,7 @@
         <v>806</v>
       </c>
     </row>
-    <row r="357" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="357" spans="1:18">
       <c r="A357" t="s">
         <v>282</v>
       </c>
@@ -22307,7 +22166,7 @@
         <v>806</v>
       </c>
     </row>
-    <row r="358" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="358" spans="1:18">
       <c r="B358" t="s">
         <v>377</v>
       </c>
@@ -22354,7 +22213,7 @@
         <v>806</v>
       </c>
     </row>
-    <row r="359" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="359" spans="1:18">
       <c r="A359" t="s">
         <v>283</v>
       </c>
@@ -22410,7 +22269,7 @@
         <v>806</v>
       </c>
     </row>
-    <row r="360" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="360" spans="1:18">
       <c r="A360" t="s">
         <v>284</v>
       </c>
@@ -22430,7 +22289,7 @@
         <v>381</v>
       </c>
       <c r="G360">
-        <v>295.47057000000001</v>
+        <v>295.47057</v>
       </c>
       <c r="H360" t="s">
         <v>383</v>
@@ -22466,7 +22325,7 @@
         <v>806</v>
       </c>
     </row>
-    <row r="361" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="361" spans="1:18">
       <c r="B361" t="s">
         <v>377</v>
       </c>
@@ -22513,7 +22372,7 @@
         <v>806</v>
       </c>
     </row>
-    <row r="362" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="362" spans="1:18">
       <c r="A362" t="s">
         <v>86</v>
       </c>
@@ -22533,7 +22392,7 @@
         <v>381</v>
       </c>
       <c r="G362">
-        <v>256.67872999999997</v>
+        <v>256.67873</v>
       </c>
       <c r="H362" t="s">
         <v>383</v>
@@ -22569,7 +22428,7 @@
         <v>806</v>
       </c>
     </row>
-    <row r="363" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="363" spans="1:18">
       <c r="A363" t="s">
         <v>285</v>
       </c>
@@ -22625,7 +22484,7 @@
         <v>806</v>
       </c>
     </row>
-    <row r="364" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="364" spans="1:18">
       <c r="A364" t="s">
         <v>286</v>
       </c>
@@ -22645,7 +22504,7 @@
         <v>381</v>
       </c>
       <c r="G364">
-        <v>293.87709999999998</v>
+        <v>293.8771</v>
       </c>
       <c r="H364" t="s">
         <v>383</v>
@@ -22681,7 +22540,7 @@
         <v>806</v>
       </c>
     </row>
-    <row r="365" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="365" spans="1:18">
       <c r="B365" t="s">
         <v>377</v>
       </c>
@@ -22728,7 +22587,7 @@
         <v>806</v>
       </c>
     </row>
-    <row r="366" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="366" spans="1:18">
       <c r="A366" t="s">
         <v>264</v>
       </c>
@@ -22748,7 +22607,7 @@
         <v>381</v>
       </c>
       <c r="G366">
-        <v>288.96607999999998</v>
+        <v>288.96608</v>
       </c>
       <c r="H366" t="s">
         <v>383</v>
@@ -22784,7 +22643,7 @@
         <v>806</v>
       </c>
     </row>
-    <row r="367" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="367" spans="1:18">
       <c r="A367" t="s">
         <v>152</v>
       </c>
@@ -22804,7 +22663,7 @@
         <v>381</v>
       </c>
       <c r="G367">
-        <v>139.78076999999999</v>
+        <v>139.78077</v>
       </c>
       <c r="H367" t="s">
         <v>383</v>
@@ -22840,7 +22699,7 @@
         <v>806</v>
       </c>
     </row>
-    <row r="368" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="368" spans="1:18">
       <c r="B368" t="s">
         <v>377</v>
       </c>
@@ -22887,7 +22746,7 @@
         <v>806</v>
       </c>
     </row>
-    <row r="369" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="369" spans="1:18">
       <c r="A369" t="s">
         <v>287</v>
       </c>
@@ -22907,7 +22766,7 @@
         <v>381</v>
       </c>
       <c r="G369">
-        <v>209.60607999999999</v>
+        <v>209.60608</v>
       </c>
       <c r="H369" t="s">
         <v>383</v>
@@ -22943,7 +22802,7 @@
         <v>806</v>
       </c>
     </row>
-    <row r="370" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="370" spans="1:18">
       <c r="A370" t="s">
         <v>288</v>
       </c>
@@ -22963,7 +22822,7 @@
         <v>381</v>
       </c>
       <c r="G370">
-        <v>320.57423999999997</v>
+        <v>320.57424</v>
       </c>
       <c r="H370" t="s">
         <v>383</v>
@@ -22999,7 +22858,7 @@
         <v>806</v>
       </c>
     </row>
-    <row r="371" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="371" spans="1:18">
       <c r="A371" t="s">
         <v>289</v>
       </c>
@@ -23019,7 +22878,7 @@
         <v>381</v>
       </c>
       <c r="G371">
-        <v>181.21098000000001</v>
+        <v>181.21098</v>
       </c>
       <c r="H371" t="s">
         <v>383</v>
@@ -23055,7 +22914,7 @@
         <v>806</v>
       </c>
     </row>
-    <row r="372" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="372" spans="1:18">
       <c r="A372" t="s">
         <v>290</v>
       </c>
@@ -23111,7 +22970,7 @@
         <v>806</v>
       </c>
     </row>
-    <row r="373" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="373" spans="1:18">
       <c r="B373" t="s">
         <v>377</v>
       </c>
@@ -23158,7 +23017,7 @@
         <v>806</v>
       </c>
     </row>
-    <row r="374" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="374" spans="1:18">
       <c r="A374" t="s">
         <v>291</v>
       </c>
@@ -23178,7 +23037,7 @@
         <v>381</v>
       </c>
       <c r="G374">
-        <v>210.54649000000001</v>
+        <v>210.54649</v>
       </c>
       <c r="H374" t="s">
         <v>383</v>
@@ -23214,7 +23073,7 @@
         <v>806</v>
       </c>
     </row>
-    <row r="375" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="375" spans="1:18">
       <c r="A375" t="s">
         <v>219</v>
       </c>
@@ -23234,7 +23093,7 @@
         <v>381</v>
       </c>
       <c r="G375">
-        <v>311.27465000000001</v>
+        <v>311.27465</v>
       </c>
       <c r="H375" t="s">
         <v>383</v>
@@ -23270,7 +23129,7 @@
         <v>806</v>
       </c>
     </row>
-    <row r="376" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="376" spans="1:18">
       <c r="A376" t="s">
         <v>220</v>
       </c>
@@ -23290,7 +23149,7 @@
         <v>381</v>
       </c>
       <c r="G376">
-        <v>313.07709999999997</v>
+        <v>313.0771</v>
       </c>
       <c r="H376" t="s">
         <v>383</v>
@@ -23326,7 +23185,7 @@
         <v>806</v>
       </c>
     </row>
-    <row r="377" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="377" spans="1:18">
       <c r="A377" t="s">
         <v>292</v>
       </c>
@@ -23346,7 +23205,7 @@
         <v>381</v>
       </c>
       <c r="G377">
-        <v>220.55137999999999</v>
+        <v>220.55138</v>
       </c>
       <c r="H377" t="s">
         <v>383</v>
@@ -23382,7 +23241,7 @@
         <v>806</v>
       </c>
     </row>
-    <row r="378" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="378" spans="1:18">
       <c r="A378" t="s">
         <v>293</v>
       </c>
@@ -23402,7 +23261,7 @@
         <v>381</v>
       </c>
       <c r="G378">
-        <v>220.21179000000001</v>
+        <v>220.21179</v>
       </c>
       <c r="H378" t="s">
         <v>383</v>
@@ -23438,7 +23297,7 @@
         <v>806</v>
       </c>
     </row>
-    <row r="379" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="379" spans="1:18">
       <c r="A379" t="s">
         <v>58</v>
       </c>
@@ -23458,7 +23317,7 @@
         <v>381</v>
       </c>
       <c r="G379">
-        <v>240.06485000000001</v>
+        <v>240.06485</v>
       </c>
       <c r="H379" t="s">
         <v>383</v>
@@ -23494,7 +23353,7 @@
         <v>806</v>
       </c>
     </row>
-    <row r="380" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="380" spans="1:18">
       <c r="A380" t="s">
         <v>294</v>
       </c>
@@ -23514,7 +23373,7 @@
         <v>381</v>
       </c>
       <c r="G380">
-        <v>223.73831999999999</v>
+        <v>223.73832</v>
       </c>
       <c r="H380" t="s">
         <v>383</v>
@@ -23550,7 +23409,7 @@
         <v>806</v>
       </c>
     </row>
-    <row r="381" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="381" spans="1:18">
       <c r="B381" t="s">
         <v>377</v>
       </c>
@@ -23597,7 +23456,7 @@
         <v>806</v>
       </c>
     </row>
-    <row r="382" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="382" spans="1:18">
       <c r="A382" t="s">
         <v>295</v>
       </c>
@@ -23617,7 +23476,7 @@
         <v>381</v>
       </c>
       <c r="G382">
-        <v>203.12771000000001</v>
+        <v>203.12771</v>
       </c>
       <c r="H382" t="s">
         <v>383</v>
@@ -23653,7 +23512,7 @@
         <v>806</v>
       </c>
     </row>
-    <row r="383" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="383" spans="1:18">
       <c r="A383" t="s">
         <v>296</v>
       </c>
@@ -23673,7 +23532,7 @@
         <v>381</v>
       </c>
       <c r="G383">
-        <v>78.993830000000003</v>
+        <v>78.99383</v>
       </c>
       <c r="H383" t="s">
         <v>383</v>
@@ -23709,7 +23568,7 @@
         <v>806</v>
       </c>
     </row>
-    <row r="384" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="384" spans="1:18">
       <c r="A384" t="s">
         <v>297</v>
       </c>
@@ -23729,7 +23588,7 @@
         <v>381</v>
       </c>
       <c r="G384">
-        <v>186.59219999999999</v>
+        <v>186.5922</v>
       </c>
       <c r="H384" t="s">
         <v>383</v>
@@ -23765,7 +23624,7 @@
         <v>806</v>
       </c>
     </row>
-    <row r="385" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="385" spans="1:18">
       <c r="A385" t="s">
         <v>298</v>
       </c>
@@ -23785,7 +23644,7 @@
         <v>381</v>
       </c>
       <c r="G385">
-        <v>360.51546000000002</v>
+        <v>360.51546</v>
       </c>
       <c r="H385" t="s">
         <v>383</v>
@@ -23821,7 +23680,7 @@
         <v>806</v>
       </c>
     </row>
-    <row r="386" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="386" spans="1:18">
       <c r="A386" t="s">
         <v>299</v>
       </c>
@@ -23841,7 +23700,7 @@
         <v>381</v>
       </c>
       <c r="G386">
-        <v>280.21505999999999</v>
+        <v>280.21506</v>
       </c>
       <c r="H386" t="s">
         <v>383</v>
@@ -23877,7 +23736,7 @@
         <v>806</v>
       </c>
     </row>
-    <row r="387" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="387" spans="1:18">
       <c r="A387" t="s">
         <v>300</v>
       </c>
@@ -23933,7 +23792,7 @@
         <v>806</v>
       </c>
     </row>
-    <row r="388" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="388" spans="1:18">
       <c r="A388" t="s">
         <v>181</v>
       </c>
@@ -23989,7 +23848,7 @@
         <v>806</v>
       </c>
     </row>
-    <row r="389" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="389" spans="1:18">
       <c r="A389" t="s">
         <v>301</v>
       </c>
@@ -24009,7 +23868,7 @@
         <v>381</v>
       </c>
       <c r="G389">
-        <v>705.82812000000001</v>
+        <v>705.82812</v>
       </c>
       <c r="H389" t="s">
         <v>383</v>
@@ -24045,7 +23904,7 @@
         <v>806</v>
       </c>
     </row>
-    <row r="390" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="390" spans="1:18">
       <c r="B390" t="s">
         <v>377</v>
       </c>
@@ -24092,7 +23951,7 @@
         <v>806</v>
       </c>
     </row>
-    <row r="391" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="391" spans="1:18">
       <c r="A391" t="s">
         <v>302</v>
       </c>
@@ -24112,7 +23971,7 @@
         <v>381</v>
       </c>
       <c r="G391">
-        <v>314.59219999999999</v>
+        <v>314.5922</v>
       </c>
       <c r="H391" t="s">
         <v>383</v>
@@ -24148,7 +24007,7 @@
         <v>806</v>
       </c>
     </row>
-    <row r="392" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="392" spans="1:18">
       <c r="A392" t="s">
         <v>303</v>
       </c>
@@ -24168,7 +24027,7 @@
         <v>381</v>
       </c>
       <c r="G392">
-        <v>372.29669000000001</v>
+        <v>372.29669</v>
       </c>
       <c r="H392" t="s">
         <v>383</v>
@@ -24204,7 +24063,7 @@
         <v>806</v>
       </c>
     </row>
-    <row r="393" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="393" spans="1:18">
       <c r="A393" t="s">
         <v>304</v>
       </c>
@@ -24224,7 +24083,7 @@
         <v>381</v>
       </c>
       <c r="G393">
-        <v>219.08852999999999</v>
+        <v>219.08853</v>
       </c>
       <c r="H393" t="s">
         <v>383</v>
@@ -24260,7 +24119,7 @@
         <v>806</v>
       </c>
     </row>
-    <row r="394" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="394" spans="1:18">
       <c r="A394" t="s">
         <v>305</v>
       </c>
@@ -24280,7 +24139,7 @@
         <v>381</v>
       </c>
       <c r="G394">
-        <v>442.33098000000001</v>
+        <v>442.33098</v>
       </c>
       <c r="H394" t="s">
         <v>383</v>
@@ -24316,7 +24175,7 @@
         <v>806</v>
       </c>
     </row>
-    <row r="395" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="395" spans="1:18">
       <c r="A395" t="s">
         <v>247</v>
       </c>
@@ -24372,7 +24231,7 @@
         <v>806</v>
       </c>
     </row>
-    <row r="396" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="396" spans="1:18">
       <c r="A396" t="s">
         <v>306</v>
       </c>
@@ -24392,7 +24251,7 @@
         <v>381</v>
       </c>
       <c r="G396">
-        <v>243.66974999999999</v>
+        <v>243.66975</v>
       </c>
       <c r="H396" t="s">
         <v>383</v>
@@ -24428,7 +24287,7 @@
         <v>806</v>
       </c>
     </row>
-    <row r="397" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="397" spans="1:18">
       <c r="A397" t="s">
         <v>307</v>
       </c>
@@ -24448,7 +24307,7 @@
         <v>381</v>
       </c>
       <c r="G397">
-        <v>209.91954999999999</v>
+        <v>209.91955</v>
       </c>
       <c r="H397" t="s">
         <v>383</v>
@@ -24484,7 +24343,7 @@
         <v>806</v>
       </c>
     </row>
-    <row r="398" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="398" spans="1:18">
       <c r="B398" t="s">
         <v>377</v>
       </c>
@@ -24531,7 +24390,7 @@
         <v>806</v>
       </c>
     </row>
-    <row r="399" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="399" spans="1:18">
       <c r="B399" t="s">
         <v>378</v>
       </c>
@@ -24557,7 +24416,7 @@
         <v>1541794284000</v>
       </c>
     </row>
-    <row r="400" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="400" spans="1:18">
       <c r="B400" t="s">
         <v>378</v>
       </c>
@@ -24583,7 +24442,7 @@
         <v>1541794285000</v>
       </c>
     </row>
-    <row r="401" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="401" spans="1:18">
       <c r="B401" t="s">
         <v>377</v>
       </c>
@@ -24630,7 +24489,7 @@
         <v>806</v>
       </c>
     </row>
-    <row r="402" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="402" spans="1:18">
       <c r="A402" t="s">
         <v>308</v>
       </c>
@@ -24650,7 +24509,7 @@
         <v>381</v>
       </c>
       <c r="G402">
-        <v>217.23383000000001</v>
+        <v>217.23383</v>
       </c>
       <c r="H402" t="s">
         <v>383</v>
@@ -24686,7 +24545,7 @@
         <v>806</v>
       </c>
     </row>
-    <row r="403" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="403" spans="1:18">
       <c r="A403" t="s">
         <v>309</v>
       </c>
@@ -24706,7 +24565,7 @@
         <v>381</v>
       </c>
       <c r="G403">
-        <v>167.86240000000001</v>
+        <v>167.8624</v>
       </c>
       <c r="H403" t="s">
         <v>383</v>
@@ -24742,7 +24601,7 @@
         <v>806</v>
       </c>
     </row>
-    <row r="404" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="404" spans="1:18">
       <c r="A404" t="s">
         <v>310</v>
       </c>
@@ -24762,7 +24621,7 @@
         <v>381</v>
       </c>
       <c r="G404">
-        <v>310.62159000000003</v>
+        <v>310.62159</v>
       </c>
       <c r="H404" t="s">
         <v>383</v>
@@ -24798,7 +24657,7 @@
         <v>806</v>
       </c>
     </row>
-    <row r="405" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="405" spans="1:18">
       <c r="A405" t="s">
         <v>311</v>
       </c>
@@ -24818,7 +24677,7 @@
         <v>381</v>
       </c>
       <c r="G405">
-        <v>167.83627999999999</v>
+        <v>167.83628</v>
       </c>
       <c r="H405" t="s">
         <v>383</v>
@@ -24854,7 +24713,7 @@
         <v>806</v>
       </c>
     </row>
-    <row r="406" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="406" spans="1:18">
       <c r="A406" t="s">
         <v>312</v>
       </c>
@@ -24874,7 +24733,7 @@
         <v>381</v>
       </c>
       <c r="G406">
-        <v>331.70240000000001</v>
+        <v>331.7024</v>
       </c>
       <c r="H406" t="s">
         <v>383</v>
@@ -24910,7 +24769,7 @@
         <v>806</v>
       </c>
     </row>
-    <row r="407" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="407" spans="1:18">
       <c r="A407" t="s">
         <v>313</v>
       </c>
@@ -24930,7 +24789,7 @@
         <v>381</v>
       </c>
       <c r="G407">
-        <v>182.88281000000001</v>
+        <v>182.88281</v>
       </c>
       <c r="H407" t="s">
         <v>383</v>
@@ -24966,7 +24825,7 @@
         <v>806</v>
       </c>
     </row>
-    <row r="408" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="408" spans="1:18">
       <c r="A408" t="s">
         <v>112</v>
       </c>
@@ -24986,7 +24845,7 @@
         <v>381</v>
       </c>
       <c r="G408">
-        <v>161.25342000000001</v>
+        <v>161.25342</v>
       </c>
       <c r="H408" t="s">
         <v>383</v>
@@ -25022,7 +24881,7 @@
         <v>806</v>
       </c>
     </row>
-    <row r="409" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="409" spans="1:18">
       <c r="A409" t="s">
         <v>214</v>
       </c>
@@ -25078,7 +24937,7 @@
         <v>806</v>
       </c>
     </row>
-    <row r="410" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="410" spans="1:18">
       <c r="A410" t="s">
         <v>314</v>
       </c>
@@ -25134,7 +24993,7 @@
         <v>806</v>
       </c>
     </row>
-    <row r="411" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="411" spans="1:18">
       <c r="A411" t="s">
         <v>103</v>
       </c>
@@ -25154,7 +25013,7 @@
         <v>381</v>
       </c>
       <c r="G411">
-        <v>269.63546000000002</v>
+        <v>269.63546</v>
       </c>
       <c r="H411" t="s">
         <v>383</v>
@@ -25190,7 +25049,7 @@
         <v>806</v>
       </c>
     </row>
-    <row r="412" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="412" spans="1:18">
       <c r="A412" t="s">
         <v>79</v>
       </c>
@@ -25246,7 +25105,7 @@
         <v>806</v>
       </c>
     </row>
-    <row r="413" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="413" spans="1:18">
       <c r="A413" t="s">
         <v>315</v>
       </c>
@@ -25266,7 +25125,7 @@
         <v>381</v>
       </c>
       <c r="G413">
-        <v>405.60280999999998</v>
+        <v>405.60281</v>
       </c>
       <c r="H413" t="s">
         <v>383</v>
@@ -25302,7 +25161,7 @@
         <v>806</v>
       </c>
     </row>
-    <row r="414" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="414" spans="1:18">
       <c r="B414" t="s">
         <v>377</v>
       </c>
@@ -25349,7 +25208,7 @@
         <v>806</v>
       </c>
     </row>
-    <row r="415" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="415" spans="1:18">
       <c r="A415" t="s">
         <v>316</v>
       </c>
@@ -25369,7 +25228,7 @@
         <v>381</v>
       </c>
       <c r="G415">
-        <v>182.93505999999999</v>
+        <v>182.93506</v>
       </c>
       <c r="H415" t="s">
         <v>383</v>
@@ -25405,7 +25264,7 @@
         <v>806</v>
       </c>
     </row>
-    <row r="416" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="416" spans="1:18">
       <c r="A416" t="s">
         <v>317</v>
       </c>
@@ -25425,7 +25284,7 @@
         <v>381</v>
       </c>
       <c r="G416">
-        <v>254.64117999999999</v>
+        <v>254.64118</v>
       </c>
       <c r="H416" t="s">
         <v>383</v>
@@ -25461,7 +25320,7 @@
         <v>806</v>
       </c>
     </row>
-    <row r="417" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="417" spans="1:18">
       <c r="A417" t="s">
         <v>311</v>
       </c>
@@ -25481,7 +25340,7 @@
         <v>381</v>
       </c>
       <c r="G417">
-        <v>278.07301999999999</v>
+        <v>278.07302</v>
       </c>
       <c r="H417" t="s">
         <v>383</v>
@@ -25517,7 +25376,7 @@
         <v>806</v>
       </c>
     </row>
-    <row r="418" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="418" spans="1:18">
       <c r="A418" t="s">
         <v>318</v>
       </c>
@@ -25537,7 +25396,7 @@
         <v>381</v>
       </c>
       <c r="G418">
-        <v>179.61751000000001</v>
+        <v>179.61751</v>
       </c>
       <c r="H418" t="s">
         <v>383</v>
@@ -25573,7 +25432,7 @@
         <v>806</v>
       </c>
     </row>
-    <row r="419" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="419" spans="1:18">
       <c r="A419" t="s">
         <v>319</v>
       </c>
@@ -25593,7 +25452,7 @@
         <v>381</v>
       </c>
       <c r="G419">
-        <v>187.61098000000001</v>
+        <v>187.61098</v>
       </c>
       <c r="H419" t="s">
         <v>383</v>
@@ -25629,7 +25488,7 @@
         <v>806</v>
       </c>
     </row>
-    <row r="420" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="420" spans="1:18">
       <c r="A420" t="s">
         <v>320</v>
       </c>
@@ -25649,7 +25508,7 @@
         <v>381</v>
       </c>
       <c r="G420">
-        <v>230.94811999999999</v>
+        <v>230.94812</v>
       </c>
       <c r="H420" t="s">
         <v>383</v>
@@ -25685,7 +25544,7 @@
         <v>806</v>
       </c>
     </row>
-    <row r="421" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="421" spans="1:18">
       <c r="A421" t="s">
         <v>321</v>
       </c>
@@ -25705,7 +25564,7 @@
         <v>381</v>
       </c>
       <c r="G421">
-        <v>253.67465000000001</v>
+        <v>253.67465</v>
       </c>
       <c r="H421" t="s">
         <v>383</v>
@@ -25741,7 +25600,7 @@
         <v>806</v>
       </c>
     </row>
-    <row r="422" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="422" spans="1:18">
       <c r="A422" t="s">
         <v>226</v>
       </c>
@@ -25797,7 +25656,7 @@
         <v>806</v>
       </c>
     </row>
-    <row r="423" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="423" spans="1:18">
       <c r="A423" t="s">
         <v>322</v>
       </c>
@@ -25817,7 +25676,7 @@
         <v>381</v>
       </c>
       <c r="G423">
-        <v>145.84118000000001</v>
+        <v>145.84118</v>
       </c>
       <c r="H423" t="s">
         <v>383</v>
@@ -25853,7 +25712,7 @@
         <v>806</v>
       </c>
     </row>
-    <row r="424" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="424" spans="1:18">
       <c r="A424" t="s">
         <v>235</v>
       </c>
@@ -25909,7 +25768,7 @@
         <v>806</v>
       </c>
     </row>
-    <row r="425" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="425" spans="1:18">
       <c r="A425" t="s">
         <v>85</v>
       </c>
@@ -25929,7 +25788,7 @@
         <v>381</v>
       </c>
       <c r="G425">
-        <v>235.70240000000001</v>
+        <v>235.7024</v>
       </c>
       <c r="H425" t="s">
         <v>383</v>
@@ -25965,7 +25824,7 @@
         <v>806</v>
       </c>
     </row>
-    <row r="426" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="426" spans="1:18">
       <c r="A426" t="s">
         <v>323</v>
       </c>
@@ -26021,7 +25880,7 @@
         <v>806</v>
       </c>
     </row>
-    <row r="427" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="427" spans="1:18">
       <c r="A427" t="s">
         <v>324</v>
       </c>
@@ -26077,7 +25936,7 @@
         <v>806</v>
       </c>
     </row>
-    <row r="428" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="428" spans="1:18">
       <c r="A428" t="s">
         <v>325</v>
       </c>
@@ -26097,7 +25956,7 @@
         <v>381</v>
       </c>
       <c r="G428">
-        <v>155.97668999999999</v>
+        <v>155.97669</v>
       </c>
       <c r="H428" t="s">
         <v>383</v>
@@ -26133,7 +25992,7 @@
         <v>806</v>
       </c>
     </row>
-    <row r="429" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="429" spans="1:18">
       <c r="A429" t="s">
         <v>326</v>
       </c>
@@ -26153,7 +26012,7 @@
         <v>381</v>
       </c>
       <c r="G429">
-        <v>278.25587000000002</v>
+        <v>278.25587</v>
       </c>
       <c r="H429" t="s">
         <v>383</v>
@@ -26189,7 +26048,7 @@
         <v>806</v>
       </c>
     </row>
-    <row r="430" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="430" spans="1:18">
       <c r="A430" t="s">
         <v>327</v>
       </c>
@@ -26245,7 +26104,7 @@
         <v>806</v>
       </c>
     </row>
-    <row r="431" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="431" spans="1:18">
       <c r="A431" t="s">
         <v>328</v>
       </c>
@@ -26265,7 +26124,7 @@
         <v>381</v>
       </c>
       <c r="G431">
-        <v>318.95465000000002</v>
+        <v>318.95465</v>
       </c>
       <c r="H431" t="s">
         <v>383</v>
@@ -26301,7 +26160,7 @@
         <v>806</v>
       </c>
     </row>
-    <row r="432" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="432" spans="1:18">
       <c r="A432" t="s">
         <v>329</v>
       </c>
@@ -26357,7 +26216,7 @@
         <v>806</v>
       </c>
     </row>
-    <row r="433" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="433" spans="1:18">
       <c r="A433" t="s">
         <v>116</v>
       </c>
@@ -26413,7 +26272,7 @@
         <v>806</v>
       </c>
     </row>
-    <row r="434" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="434" spans="1:18">
       <c r="B434" t="s">
         <v>377</v>
       </c>
@@ -26460,7 +26319,7 @@
         <v>806</v>
       </c>
     </row>
-    <row r="435" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="435" spans="1:18">
       <c r="B435" t="s">
         <v>377</v>
       </c>
@@ -26507,7 +26366,7 @@
         <v>806</v>
       </c>
     </row>
-    <row r="436" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="436" spans="1:18">
       <c r="A436" t="s">
         <v>117</v>
       </c>
@@ -26527,7 +26386,7 @@
         <v>381</v>
       </c>
       <c r="G436">
-        <v>233.40362999999999</v>
+        <v>233.40363</v>
       </c>
       <c r="H436" t="s">
         <v>383</v>
@@ -26563,7 +26422,7 @@
         <v>806</v>
       </c>
     </row>
-    <row r="437" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="437" spans="1:18">
       <c r="A437" t="s">
         <v>195</v>
       </c>
@@ -26583,7 +26442,7 @@
         <v>381</v>
       </c>
       <c r="G437">
-        <v>239.35955000000001</v>
+        <v>239.35955</v>
       </c>
       <c r="H437" t="s">
         <v>383</v>
@@ -26619,7 +26478,7 @@
         <v>806</v>
       </c>
     </row>
-    <row r="438" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="438" spans="1:18">
       <c r="A438" t="s">
         <v>168</v>
       </c>
@@ -26675,7 +26534,7 @@
         <v>806</v>
       </c>
     </row>
-    <row r="439" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="439" spans="1:18">
       <c r="A439" t="s">
         <v>330</v>
       </c>
@@ -26695,7 +26554,7 @@
         <v>381</v>
       </c>
       <c r="G439">
-        <v>256.80934000000002</v>
+        <v>256.80934</v>
       </c>
       <c r="H439" t="s">
         <v>383</v>
@@ -26731,7 +26590,7 @@
         <v>806</v>
       </c>
     </row>
-    <row r="440" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="440" spans="1:18">
       <c r="B440" t="s">
         <v>377</v>
       </c>
@@ -26778,7 +26637,7 @@
         <v>806</v>
       </c>
     </row>
-    <row r="441" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="441" spans="1:18">
       <c r="A441" t="s">
         <v>331</v>
       </c>
@@ -26798,7 +26657,7 @@
         <v>381</v>
       </c>
       <c r="G441">
-        <v>327.62729999999999</v>
+        <v>327.6273</v>
       </c>
       <c r="H441" t="s">
         <v>383</v>
@@ -26834,7 +26693,7 @@
         <v>806</v>
       </c>
     </row>
-    <row r="442" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="442" spans="1:18">
       <c r="A442" t="s">
         <v>142</v>
       </c>
@@ -26854,7 +26713,7 @@
         <v>381</v>
       </c>
       <c r="G442">
-        <v>287.45098000000002</v>
+        <v>287.45098</v>
       </c>
       <c r="H442" t="s">
         <v>383</v>
@@ -26890,7 +26749,7 @@
         <v>806</v>
       </c>
     </row>
-    <row r="443" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="443" spans="1:18">
       <c r="A443" t="s">
         <v>332</v>
       </c>
@@ -26910,7 +26769,7 @@
         <v>381</v>
       </c>
       <c r="G443">
-        <v>211.59137999999999</v>
+        <v>211.59138</v>
       </c>
       <c r="H443" t="s">
         <v>383</v>
@@ -26946,7 +26805,7 @@
         <v>806</v>
       </c>
     </row>
-    <row r="444" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="444" spans="1:18">
       <c r="A444" t="s">
         <v>333</v>
       </c>
@@ -26966,7 +26825,7 @@
         <v>381</v>
       </c>
       <c r="G444">
-        <v>370.52035999999998</v>
+        <v>370.52036</v>
       </c>
       <c r="H444" t="s">
         <v>383</v>
@@ -27002,7 +26861,7 @@
         <v>806</v>
       </c>
     </row>
-    <row r="445" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="445" spans="1:18">
       <c r="A445" t="s">
         <v>334</v>
       </c>
@@ -27022,7 +26881,7 @@
         <v>381</v>
       </c>
       <c r="G445">
-        <v>181.21098000000001</v>
+        <v>181.21098</v>
       </c>
       <c r="H445" t="s">
         <v>383</v>
@@ -27058,7 +26917,7 @@
         <v>806</v>
       </c>
     </row>
-    <row r="446" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="446" spans="1:18">
       <c r="A446" t="s">
         <v>335</v>
       </c>
@@ -27114,7 +26973,7 @@
         <v>806</v>
       </c>
     </row>
-    <row r="447" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="447" spans="1:18">
       <c r="A447" t="s">
         <v>93</v>
       </c>
@@ -27170,7 +27029,7 @@
         <v>806</v>
       </c>
     </row>
-    <row r="448" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="448" spans="1:18">
       <c r="A448" t="s">
         <v>336</v>
       </c>
@@ -27190,7 +27049,7 @@
         <v>381</v>
       </c>
       <c r="G448">
-        <v>239.07220000000001</v>
+        <v>239.0722</v>
       </c>
       <c r="H448" t="s">
         <v>383</v>
@@ -27226,7 +27085,7 @@
         <v>806</v>
       </c>
     </row>
-    <row r="449" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="449" spans="1:18">
       <c r="A449" t="s">
         <v>337</v>
       </c>
@@ -27246,7 +27105,7 @@
         <v>381</v>
       </c>
       <c r="G449">
-        <v>302.49750999999998</v>
+        <v>302.49751</v>
       </c>
       <c r="H449" t="s">
         <v>383</v>
@@ -27282,7 +27141,7 @@
         <v>806</v>
       </c>
     </row>
-    <row r="450" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="450" spans="1:18">
       <c r="A450" t="s">
         <v>338</v>
       </c>
@@ -27338,7 +27197,7 @@
         <v>806</v>
       </c>
     </row>
-    <row r="451" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="451" spans="1:18">
       <c r="B451" t="s">
         <v>377</v>
       </c>
@@ -27385,7 +27244,7 @@
         <v>806</v>
       </c>
     </row>
-    <row r="452" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="452" spans="1:18">
       <c r="A452" t="s">
         <v>339</v>
       </c>
@@ -27405,7 +27264,7 @@
         <v>381</v>
       </c>
       <c r="G452">
-        <v>187.61098000000001</v>
+        <v>187.61098</v>
       </c>
       <c r="H452" t="s">
         <v>383</v>
@@ -27441,7 +27300,7 @@
         <v>806</v>
       </c>
     </row>
-    <row r="453" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="453" spans="1:18">
       <c r="B453" t="s">
         <v>377</v>
       </c>
@@ -27488,7 +27347,7 @@
         <v>806</v>
       </c>
     </row>
-    <row r="454" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="454" spans="1:18">
       <c r="A454" t="s">
         <v>340</v>
       </c>
@@ -27544,7 +27403,7 @@
         <v>806</v>
       </c>
     </row>
-    <row r="455" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="455" spans="1:18">
       <c r="A455" t="s">
         <v>341</v>
       </c>
@@ -27600,7 +27459,7 @@
         <v>806</v>
       </c>
     </row>
-    <row r="456" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="456" spans="1:18">
       <c r="A456" t="s">
         <v>342</v>
       </c>
@@ -27620,7 +27479,7 @@
         <v>381</v>
       </c>
       <c r="G456">
-        <v>158.64117999999999</v>
+        <v>158.64118</v>
       </c>
       <c r="H456" t="s">
         <v>383</v>
@@ -27656,7 +27515,7 @@
         <v>806</v>
       </c>
     </row>
-    <row r="457" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="457" spans="1:18">
       <c r="A457" t="s">
         <v>343</v>
       </c>
@@ -27676,7 +27535,7 @@
         <v>381</v>
       </c>
       <c r="G457">
-        <v>317.62240000000003</v>
+        <v>317.6224</v>
       </c>
       <c r="H457" t="s">
         <v>383</v>
@@ -27712,7 +27571,7 @@
         <v>806</v>
       </c>
     </row>
-    <row r="458" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="458" spans="1:18">
       <c r="A458" t="s">
         <v>344</v>
       </c>
@@ -27732,7 +27591,7 @@
         <v>381</v>
       </c>
       <c r="G458">
-        <v>256.57423999999997</v>
+        <v>256.57424</v>
       </c>
       <c r="H458" t="s">
         <v>383</v>
@@ -27768,7 +27627,7 @@
         <v>806</v>
       </c>
     </row>
-    <row r="459" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="459" spans="1:18">
       <c r="B459" t="s">
         <v>377</v>
       </c>
@@ -27815,7 +27674,7 @@
         <v>806</v>
       </c>
     </row>
-    <row r="460" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="460" spans="1:18">
       <c r="B460" t="s">
         <v>377</v>
       </c>
@@ -27862,7 +27721,7 @@
         <v>806</v>
       </c>
     </row>
-    <row r="461" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="461" spans="1:18">
       <c r="A461" t="s">
         <v>345</v>
       </c>
@@ -27918,7 +27777,7 @@
         <v>806</v>
       </c>
     </row>
-    <row r="462" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="462" spans="1:18">
       <c r="A462" t="s">
         <v>297</v>
       </c>
@@ -27938,7 +27797,7 @@
         <v>381</v>
       </c>
       <c r="G462">
-        <v>170.63138000000001</v>
+        <v>170.63138</v>
       </c>
       <c r="H462" t="s">
         <v>383</v>
@@ -27974,7 +27833,7 @@
         <v>806</v>
       </c>
     </row>
-    <row r="463" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="463" spans="1:18">
       <c r="A463" t="s">
         <v>346</v>
       </c>
@@ -28030,7 +27889,7 @@
         <v>806</v>
       </c>
     </row>
-    <row r="464" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="464" spans="1:18">
       <c r="A464" t="s">
         <v>347</v>
       </c>
@@ -28050,7 +27909,7 @@
         <v>381</v>
       </c>
       <c r="G464">
-        <v>192.73097999999999</v>
+        <v>192.73098</v>
       </c>
       <c r="H464" t="s">
         <v>383</v>
@@ -28086,7 +27945,7 @@
         <v>806</v>
       </c>
     </row>
-    <row r="465" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="465" spans="1:18">
       <c r="B465" t="s">
         <v>377</v>
       </c>
@@ -28133,7 +27992,7 @@
         <v>806</v>
       </c>
     </row>
-    <row r="466" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="466" spans="1:18">
       <c r="A466" t="s">
         <v>348</v>
       </c>
@@ -28153,7 +28012,7 @@
         <v>381</v>
       </c>
       <c r="G466">
-        <v>229.35464999999999</v>
+        <v>229.35465</v>
       </c>
       <c r="H466" t="s">
         <v>383</v>
@@ -28189,7 +28048,7 @@
         <v>806</v>
       </c>
     </row>
-    <row r="467" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="467" spans="1:18">
       <c r="B467" t="s">
         <v>377</v>
       </c>
@@ -28236,7 +28095,7 @@
         <v>806</v>
       </c>
     </row>
-    <row r="468" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="468" spans="1:18">
       <c r="A468" t="s">
         <v>349</v>
       </c>
@@ -28256,7 +28115,7 @@
         <v>381</v>
       </c>
       <c r="G468">
-        <v>241.03138000000001</v>
+        <v>241.03138</v>
       </c>
       <c r="H468" t="s">
         <v>383</v>
@@ -28292,7 +28151,7 @@
         <v>806</v>
       </c>
     </row>
-    <row r="469" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="469" spans="1:18">
       <c r="A469" t="s">
         <v>350</v>
       </c>
@@ -28348,7 +28207,7 @@
         <v>806</v>
       </c>
     </row>
-    <row r="470" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="470" spans="1:18">
       <c r="A470" t="s">
         <v>351</v>
       </c>
@@ -28368,7 +28227,7 @@
         <v>381</v>
       </c>
       <c r="G470">
-        <v>168.90729999999999</v>
+        <v>168.9073</v>
       </c>
       <c r="H470" t="s">
         <v>383</v>
@@ -28404,7 +28263,7 @@
         <v>806</v>
       </c>
     </row>
-    <row r="471" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="471" spans="1:18">
       <c r="A471" t="s">
         <v>352</v>
       </c>
@@ -28424,7 +28283,7 @@
         <v>381</v>
       </c>
       <c r="G471">
-        <v>178.02404000000001</v>
+        <v>178.02404</v>
       </c>
       <c r="H471" t="s">
         <v>383</v>
@@ -28460,7 +28319,7 @@
         <v>806</v>
       </c>
     </row>
-    <row r="472" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="472" spans="1:18">
       <c r="A472" t="s">
         <v>353</v>
       </c>
@@ -28480,7 +28339,7 @@
         <v>381</v>
       </c>
       <c r="G472">
-        <v>273.00526000000002</v>
+        <v>273.00526</v>
       </c>
       <c r="H472" t="s">
         <v>383</v>
@@ -28516,7 +28375,7 @@
         <v>806</v>
       </c>
     </row>
-    <row r="473" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="473" spans="1:18">
       <c r="A473" t="s">
         <v>354</v>
       </c>
@@ -28572,7 +28431,7 @@
         <v>806</v>
       </c>
     </row>
-    <row r="474" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="474" spans="1:18">
       <c r="A474" t="s">
         <v>355</v>
       </c>
@@ -28628,7 +28487,7 @@
         <v>806</v>
       </c>
     </row>
-    <row r="475" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="475" spans="1:18">
       <c r="A475" t="s">
         <v>356</v>
       </c>
@@ -28684,7 +28543,7 @@
         <v>806</v>
       </c>
     </row>
-    <row r="476" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="476" spans="1:18">
       <c r="A476" t="s">
         <v>93</v>
       </c>
@@ -28740,7 +28599,7 @@
         <v>806</v>
       </c>
     </row>
-    <row r="477" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="477" spans="1:18">
       <c r="B477" t="s">
         <v>377</v>
       </c>
@@ -28787,7 +28646,7 @@
         <v>806</v>
       </c>
     </row>
-    <row r="478" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="478" spans="1:18">
       <c r="A478" t="s">
         <v>214</v>
       </c>
@@ -28807,7 +28666,7 @@
         <v>381</v>
       </c>
       <c r="G478">
-        <v>231.26159000000001</v>
+        <v>231.26159</v>
       </c>
       <c r="H478" t="s">
         <v>383</v>
@@ -28843,7 +28702,7 @@
         <v>806</v>
       </c>
     </row>
-    <row r="479" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="479" spans="1:18">
       <c r="A479" t="s">
         <v>357</v>
       </c>
@@ -28899,7 +28758,7 @@
         <v>806</v>
       </c>
     </row>
-    <row r="480" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="480" spans="1:18">
       <c r="A480" t="s">
         <v>358</v>
       </c>
@@ -28919,7 +28778,7 @@
         <v>381</v>
       </c>
       <c r="G480">
-        <v>198.63464999999999</v>
+        <v>198.63465</v>
       </c>
       <c r="H480" t="s">
         <v>383</v>
@@ -28955,7 +28814,7 @@
         <v>806</v>
       </c>
     </row>
-    <row r="481" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="481" spans="1:18">
       <c r="A481" t="s">
         <v>359</v>
       </c>
@@ -29011,7 +28870,7 @@
         <v>806</v>
       </c>
     </row>
-    <row r="482" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="482" spans="1:18">
       <c r="A482" t="s">
         <v>360</v>
       </c>
@@ -29067,7 +28926,7 @@
         <v>806</v>
       </c>
     </row>
-    <row r="483" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="483" spans="1:18">
       <c r="A483" t="s">
         <v>361</v>
       </c>
@@ -29087,7 +28946,7 @@
         <v>381</v>
       </c>
       <c r="G483">
-        <v>205.37423999999999</v>
+        <v>205.37424</v>
       </c>
       <c r="H483" t="s">
         <v>383</v>
@@ -29123,7 +28982,7 @@
         <v>806</v>
       </c>
     </row>
-    <row r="484" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="484" spans="1:18">
       <c r="A484" t="s">
         <v>362</v>
       </c>
@@ -29179,7 +29038,7 @@
         <v>806</v>
       </c>
     </row>
-    <row r="485" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="485" spans="1:18">
       <c r="A485" t="s">
         <v>203</v>
       </c>
@@ -29199,7 +29058,7 @@
         <v>381</v>
       </c>
       <c r="G485">
-        <v>240.43056999999999</v>
+        <v>240.43057</v>
       </c>
       <c r="H485" t="s">
         <v>383</v>
@@ -29235,7 +29094,7 @@
         <v>806</v>
       </c>
     </row>
-    <row r="486" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="486" spans="1:18">
       <c r="B486" t="s">
         <v>377</v>
       </c>
@@ -29282,7 +29141,7 @@
         <v>806</v>
       </c>
     </row>
-    <row r="487" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="487" spans="1:18">
       <c r="A487" t="s">
         <v>363</v>
       </c>
@@ -29302,7 +29161,7 @@
         <v>381</v>
       </c>
       <c r="G487">
-        <v>224.70484999999999</v>
+        <v>224.70485</v>
       </c>
       <c r="H487" t="s">
         <v>383</v>
@@ -29338,7 +29197,7 @@
         <v>806</v>
       </c>
     </row>
-    <row r="488" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="488" spans="1:18">
       <c r="A488" t="s">
         <v>240</v>
       </c>
@@ -29358,7 +29217,7 @@
         <v>381</v>
       </c>
       <c r="G488">
-        <v>187.27137999999999</v>
+        <v>187.27138</v>
       </c>
       <c r="H488" t="s">
         <v>383</v>
@@ -29394,7 +29253,7 @@
         <v>806</v>
       </c>
     </row>
-    <row r="489" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="489" spans="1:18">
       <c r="A489" t="s">
         <v>168</v>
       </c>
@@ -29414,7 +29273,7 @@
         <v>381</v>
       </c>
       <c r="G489">
-        <v>236.12036000000001</v>
+        <v>236.12036</v>
       </c>
       <c r="H489" t="s">
         <v>383</v>
@@ -29450,7 +29309,7 @@
         <v>806</v>
       </c>
     </row>
-    <row r="490" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="490" spans="1:18">
       <c r="A490" t="s">
         <v>214</v>
       </c>
@@ -29470,7 +29329,7 @@
         <v>381</v>
       </c>
       <c r="G490">
-        <v>334.70648999999997</v>
+        <v>334.70649</v>
       </c>
       <c r="H490" t="s">
         <v>383</v>
@@ -29506,7 +29365,7 @@
         <v>806</v>
       </c>
     </row>
-    <row r="491" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="491" spans="1:18">
       <c r="A491" t="s">
         <v>135</v>
       </c>
@@ -29526,7 +29385,7 @@
         <v>381</v>
       </c>
       <c r="G491">
-        <v>224.13015999999999</v>
+        <v>224.13016</v>
       </c>
       <c r="H491" t="s">
         <v>383</v>
@@ -29562,7 +29421,7 @@
         <v>806</v>
       </c>
     </row>
-    <row r="492" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="492" spans="1:18">
       <c r="A492" t="s">
         <v>54</v>
       </c>
@@ -29582,7 +29441,7 @@
         <v>381</v>
       </c>
       <c r="G492">
-        <v>288.41750999999999</v>
+        <v>288.41751</v>
       </c>
       <c r="H492" t="s">
         <v>383</v>
@@ -29618,7 +29477,7 @@
         <v>806</v>
       </c>
     </row>
-    <row r="493" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="493" spans="1:18">
       <c r="A493" t="s">
         <v>363</v>
       </c>
@@ -29638,7 +29497,7 @@
         <v>381</v>
       </c>
       <c r="G493">
-        <v>196.28362999999999</v>
+        <v>196.28363</v>
       </c>
       <c r="H493" t="s">
         <v>383</v>
@@ -29674,7 +29533,7 @@
         <v>806</v>
       </c>
     </row>
-    <row r="494" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="494" spans="1:18">
       <c r="A494" t="s">
         <v>364</v>
       </c>
@@ -29730,7 +29589,7 @@
         <v>806</v>
       </c>
     </row>
-    <row r="495" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="495" spans="1:18">
       <c r="A495" t="s">
         <v>365</v>
       </c>
@@ -29750,7 +29609,7 @@
         <v>381</v>
       </c>
       <c r="G495">
-        <v>338.96444000000002</v>
+        <v>338.96444</v>
       </c>
       <c r="H495" t="s">
         <v>383</v>
@@ -29786,7 +29645,7 @@
         <v>806</v>
       </c>
     </row>
-    <row r="496" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="496" spans="1:18">
       <c r="A496" t="s">
         <v>366</v>
       </c>
@@ -29806,7 +29665,7 @@
         <v>381</v>
       </c>
       <c r="G496">
-        <v>251.89832000000001</v>
+        <v>251.89832</v>
       </c>
       <c r="H496" t="s">
         <v>383</v>
@@ -29842,7 +29701,7 @@
         <v>806</v>
       </c>
     </row>
-    <row r="497" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="497" spans="1:18">
       <c r="A497" t="s">
         <v>76</v>
       </c>
@@ -29862,7 +29721,7 @@
         <v>381</v>
       </c>
       <c r="G497">
-        <v>302.05342000000002</v>
+        <v>302.05342</v>
       </c>
       <c r="H497" t="s">
         <v>383</v>
@@ -29898,7 +29757,7 @@
         <v>806</v>
       </c>
     </row>
-    <row r="498" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="498" spans="1:18">
       <c r="A498" t="s">
         <v>367</v>
       </c>
@@ -29918,7 +29777,7 @@
         <v>381</v>
       </c>
       <c r="G498">
-        <v>227.97015999999999</v>
+        <v>227.97016</v>
       </c>
       <c r="H498" t="s">
         <v>383</v>
@@ -29954,7 +29813,7 @@
         <v>806</v>
       </c>
     </row>
-    <row r="499" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="499" spans="1:18">
       <c r="A499" t="s">
         <v>368</v>
       </c>
@@ -29974,7 +29833,7 @@
         <v>381</v>
       </c>
       <c r="G499">
-        <v>177.21423999999999</v>
+        <v>177.21424</v>
       </c>
       <c r="H499" t="s">
         <v>383</v>
@@ -30010,7 +29869,7 @@
         <v>806</v>
       </c>
     </row>
-    <row r="500" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="500" spans="1:18">
       <c r="A500" t="s">
         <v>369</v>
       </c>
@@ -30066,7 +29925,7 @@
         <v>806</v>
       </c>
     </row>
-    <row r="501" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="501" spans="1:18">
       <c r="A501" t="s">
         <v>370</v>
       </c>
@@ -30086,7 +29945,7 @@
         <v>381</v>
       </c>
       <c r="G501">
-        <v>277.15872999999999</v>
+        <v>277.15873</v>
       </c>
       <c r="H501" t="s">
         <v>383</v>
@@ -30122,7 +29981,7 @@
         <v>806</v>
       </c>
     </row>
-    <row r="502" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="502" spans="1:18">
       <c r="A502" t="s">
         <v>371</v>
       </c>
@@ -30142,7 +30001,7 @@
         <v>381</v>
       </c>
       <c r="G502">
-        <v>236.35545999999999</v>
+        <v>236.35546</v>
       </c>
       <c r="H502" t="s">
         <v>383</v>
@@ -30178,7 +30037,7 @@
         <v>806</v>
       </c>
     </row>
-    <row r="503" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="503" spans="1:18">
       <c r="A503" t="s">
         <v>219</v>
       </c>
@@ -30198,7 +30057,7 @@
         <v>381</v>
       </c>
       <c r="G503">
-        <v>237.45260999999999</v>
+        <v>237.45261</v>
       </c>
       <c r="H503" t="s">
         <v>383</v>
@@ -30234,7 +30093,7 @@
         <v>806</v>
       </c>
     </row>
-    <row r="504" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="504" spans="1:18">
       <c r="B504" t="s">
         <v>377</v>
       </c>
@@ -30281,7 +30140,7 @@
         <v>806</v>
       </c>
     </row>
-    <row r="505" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="505" spans="1:18">
       <c r="A505" t="s">
         <v>372</v>
       </c>
@@ -30301,7 +30160,7 @@
         <v>381</v>
       </c>
       <c r="G505">
-        <v>292.36200000000002</v>
+        <v>292.362</v>
       </c>
       <c r="H505" t="s">
         <v>383</v>
@@ -30337,7 +30196,7 @@
         <v>806</v>
       </c>
     </row>
-    <row r="506" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="506" spans="1:18">
       <c r="A506" t="s">
         <v>172</v>
       </c>
@@ -30357,7 +30216,7 @@
         <v>381</v>
       </c>
       <c r="G506">
-        <v>515.21261000000004</v>
+        <v>515.21261</v>
       </c>
       <c r="H506" t="s">
         <v>383</v>
@@ -30393,7 +30252,7 @@
         <v>806</v>
       </c>
     </row>
-    <row r="507" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="507" spans="1:18">
       <c r="A507" t="s">
         <v>373</v>
       </c>
@@ -30413,7 +30272,7 @@
         <v>381</v>
       </c>
       <c r="G507">
-        <v>238.86322000000001</v>
+        <v>238.86322</v>
       </c>
       <c r="H507" t="s">
         <v>383</v>
@@ -30449,7 +30308,7 @@
         <v>806</v>
       </c>
     </row>
-    <row r="508" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="508" spans="1:18">
       <c r="A508" t="s">
         <v>374</v>
       </c>
@@ -30469,7 +30328,7 @@
         <v>381</v>
       </c>
       <c r="G508">
-        <v>184.60688999999999</v>
+        <v>184.60689</v>
       </c>
       <c r="H508" t="s">
         <v>383</v>
@@ -30505,7 +30364,7 @@
         <v>806</v>
       </c>
     </row>
-    <row r="509" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="509" spans="1:18">
       <c r="A509" t="s">
         <v>375</v>
       </c>
@@ -30561,7 +30420,7 @@
         <v>806</v>
       </c>
     </row>
-    <row r="510" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="510" spans="1:18">
       <c r="B510" t="s">
         <v>377</v>
       </c>
@@ -30608,7 +30467,7 @@
         <v>806</v>
       </c>
     </row>
-    <row r="511" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="511" spans="1:18">
       <c r="B511" t="s">
         <v>378</v>
       </c>
@@ -30634,7 +30493,7 @@
         <v>1541816643000</v>
       </c>
     </row>
-    <row r="512" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="512" spans="1:18">
       <c r="B512" t="s">
         <v>378</v>
       </c>
@@ -30660,7 +30519,7 @@
         <v>1541816721000</v>
       </c>
     </row>
-    <row r="513" spans="2:18" x14ac:dyDescent="0.25">
+    <row r="513" spans="2:18">
       <c r="B513" t="s">
         <v>378</v>
       </c>
@@ -30686,7 +30545,7 @@
         <v>1541816822000</v>
       </c>
     </row>
-    <row r="514" spans="2:18" x14ac:dyDescent="0.25">
+    <row r="514" spans="2:18">
       <c r="B514" t="s">
         <v>378</v>
       </c>
@@ -30712,7 +30571,7 @@
         <v>1541817122000</v>
       </c>
     </row>
-    <row r="515" spans="2:18" x14ac:dyDescent="0.25">
+    <row r="515" spans="2:18">
       <c r="B515" t="s">
         <v>378</v>
       </c>
@@ -30738,7 +30597,7 @@
         <v>1541817123000</v>
       </c>
     </row>
-    <row r="516" spans="2:18" x14ac:dyDescent="0.25">
+    <row r="516" spans="2:18">
       <c r="B516" t="s">
         <v>377</v>
       </c>
@@ -30787,8 +30646,5 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <tableParts count="1">
-    <tablePart r:id="rId1"/>
-  </tableParts>
 </worksheet>
 </file>
--- a/summaries/sample_session.xlsx
+++ b/summaries/sample_session.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -54,18 +54,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <indexedColors>
       <rgbColor rgb="00000000"/>
@@ -23811,6 +23811,6 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>